--- a/kgstats-generated/2024.11.11/stats/xlsx/voc-marathon-top-by-best-speed.xlsx
+++ b/kgstats-generated/2024.11.11/stats/xlsx/voc-marathon-top-by-best-speed.xlsx
@@ -68,7 +68,7 @@
     <t>HRUST</t>
   </si>
   <si>
-    <t>150 ч. 20 мин. 8 сек.</t>
+    <t>150 ч. 20 мин. 08 сек.</t>
   </si>
   <si>
     <t>4–5</t>
@@ -77,7 +77,7 @@
     <t>sorrovv</t>
   </si>
   <si>
-    <t>23 ч. 6 мин. 33 сек.</t>
+    <t>23 ч. 06 мин. 33 сек.</t>
   </si>
   <si>
     <t>Oxanette</t>
@@ -101,7 +101,7 @@
     <t>Speedyman</t>
   </si>
   <si>
-    <t>258 ч. 3 мин. 46 сек.</t>
+    <t>258 ч. 03 мин. 46 сек.</t>
   </si>
   <si>
     <t>8</t>
@@ -110,7 +110,7 @@
     <t>dosh</t>
   </si>
   <si>
-    <t>121 ч. 3 мин. 37 сек.</t>
+    <t>121 ч. 03 мин. 37 сек.</t>
   </si>
   <si>
     <t>9</t>
@@ -128,7 +128,7 @@
     <t>Andre_Macareno</t>
   </si>
   <si>
-    <t>39 ч. 52 мин. 7 сек.</t>
+    <t>39 ч. 52 мин. 07 сек.</t>
   </si>
   <si>
     <t>11</t>
@@ -155,7 +155,7 @@
     <t>Виталька</t>
   </si>
   <si>
-    <t>79 ч. 11 мин. 9 сек.</t>
+    <t>79 ч. 11 мин. 09 сек.</t>
   </si>
   <si>
     <t>14</t>
@@ -182,7 +182,7 @@
     <t>sneg_jr</t>
   </si>
   <si>
-    <t>12 ч. 43 мин. 7 сек.</t>
+    <t>12 ч. 43 мин. 07 сек.</t>
   </si>
   <si>
     <t>17</t>
@@ -209,7 +209,7 @@
     <t>AstonMartinDB10</t>
   </si>
   <si>
-    <t>29 ч. 2 мин. 30 сек.</t>
+    <t>29 ч. 02 мин. 30 сек.</t>
   </si>
   <si>
     <t>20</t>
@@ -218,7 +218,7 @@
     <t>firelly</t>
   </si>
   <si>
-    <t>70 ч. 1 мин. 35 сек.</t>
+    <t>70 ч. 01 мин. 35 сек.</t>
   </si>
   <si>
     <t>21</t>
@@ -341,7 +341,7 @@
     <t>SnowMen</t>
   </si>
   <si>
-    <t>17 ч. 3 мин. 30 сек.</t>
+    <t>17 ч. 03 мин. 30 сек.</t>
   </si>
   <si>
     <t>36–39</t>
@@ -350,7 +350,7 @@
     <t>Fudo</t>
   </si>
   <si>
-    <t>28 ч. 47 мин. 8 сек.</t>
+    <t>28 ч. 47 мин. 08 сек.</t>
   </si>
   <si>
     <t>ZILYA</t>
@@ -362,13 +362,13 @@
     <t>Андруша</t>
   </si>
   <si>
-    <t>231 ч. 42 мин. 4 сек.</t>
+    <t>231 ч. 42 мин. 04 сек.</t>
   </si>
   <si>
     <t>3Volta</t>
   </si>
   <si>
-    <t>237 ч. 2 мин. 53 сек.</t>
+    <t>237 ч. 02 мин. 53 сек.</t>
   </si>
   <si>
     <t>40</t>
@@ -392,7 +392,7 @@
     <t>D1mchik</t>
   </si>
   <si>
-    <t>25 ч. 22 мин. 3 сек.</t>
+    <t>25 ч. 22 мин. 03 сек.</t>
   </si>
   <si>
     <t>43</t>
@@ -410,7 +410,7 @@
     <t>Vet0chka</t>
   </si>
   <si>
-    <t>47 ч. 50 мин. 4 сек.</t>
+    <t>47 ч. 50 мин. 04 сек.</t>
   </si>
   <si>
     <t>45–46</t>
@@ -425,7 +425,7 @@
     <t>Алина_</t>
   </si>
   <si>
-    <t>70 ч. 1 мин. 2 сек.</t>
+    <t>70 ч. 01 мин. 02 сек.</t>
   </si>
   <si>
     <t>47–48</t>
@@ -434,7 +434,7 @@
     <t>zvv</t>
   </si>
   <si>
-    <t>73 ч. 2 мин. 21 сек.</t>
+    <t>73 ч. 02 мин. 21 сек.</t>
   </si>
   <si>
     <t>Static</t>
@@ -482,7 +482,7 @@
     <t>бэтман</t>
   </si>
   <si>
-    <t>38 ч. 35 мин. 2 сек.</t>
+    <t>38 ч. 35 мин. 02 сек.</t>
   </si>
   <si>
     <t>54</t>
@@ -518,7 +518,7 @@
     <t>8RUMIT</t>
   </si>
   <si>
-    <t>10 ч. 9 мин. 27 сек.</t>
+    <t>10 ч. 09 мин. 27 сек.</t>
   </si>
   <si>
     <t>Uncle_Sam</t>
@@ -542,7 +542,7 @@
     <t>darkneon</t>
   </si>
   <si>
-    <t>33 ч. 54 мин. 4 сек.</t>
+    <t>33 ч. 54 мин. 04 сек.</t>
   </si>
   <si>
     <t>61</t>
@@ -569,7 +569,7 @@
     <t>KOSTYA410</t>
   </si>
   <si>
-    <t>338 ч. 6 мин. 35 сек.</t>
+    <t>338 ч. 06 мин. 35 сек.</t>
   </si>
   <si>
     <t>64</t>
@@ -596,13 +596,13 @@
     <t>Скат</t>
   </si>
   <si>
-    <t>14 ч. 2 мин. 19 сек.</t>
+    <t>14 ч. 02 мин. 19 сек.</t>
   </si>
   <si>
     <t>SupremeLearning</t>
   </si>
   <si>
-    <t>15 ч. 3 мин. 47 сек.</t>
+    <t>15 ч. 03 мин. 47 сек.</t>
   </si>
   <si>
     <t>Ваньсон</t>
@@ -626,7 +626,7 @@
     <t>Lien</t>
   </si>
   <si>
-    <t>24 ч. 1 мин. 19 сек.</t>
+    <t>24 ч. 01 мин. 19 сек.</t>
   </si>
   <si>
     <t>71–73</t>
@@ -641,7 +641,7 @@
     <t>Клевая_черепаха</t>
   </si>
   <si>
-    <t>60 ч. 8 мин. 28 сек.</t>
+    <t>60 ч. 08 мин. 28 сек.</t>
   </si>
   <si>
     <t>Eremite</t>
@@ -680,7 +680,7 @@
     <t>madinko</t>
   </si>
   <si>
-    <t>15 ч. 3 мин. 55 сек.</t>
+    <t>15 ч. 03 мин. 55 сек.</t>
   </si>
   <si>
     <t>78</t>
@@ -710,7 +710,7 @@
     <t>IOd</t>
   </si>
   <si>
-    <t>58 ч. 46 мин. 9 сек.</t>
+    <t>58 ч. 46 мин. 09 сек.</t>
   </si>
   <si>
     <t>82–83</t>
@@ -752,7 +752,7 @@
     <t>artt</t>
   </si>
   <si>
-    <t>95 ч. 38 мин. 1 сек.</t>
+    <t>95 ч. 38 мин. 01 сек.</t>
   </si>
   <si>
     <t>87–88</t>
@@ -767,7 +767,7 @@
     <t>Kanazei</t>
   </si>
   <si>
-    <t>42 ч. 36 мин. 8 сек.</t>
+    <t>42 ч. 36 мин. 08 сек.</t>
   </si>
   <si>
     <t>89–91</t>
@@ -818,25 +818,25 @@
     <t>_Jack_</t>
   </si>
   <si>
-    <t>22 ч. 47 мин. 8 сек.</t>
+    <t>22 ч. 47 мин. 08 сек.</t>
   </si>
   <si>
     <t>SpiritCrusher</t>
   </si>
   <si>
-    <t>51 ч. 38 мин. 3 сек.</t>
+    <t>51 ч. 38 мин. 03 сек.</t>
   </si>
   <si>
     <t>HUMAN</t>
   </si>
   <si>
-    <t>74 ч. 28 мин. 3 сек.</t>
+    <t>74 ч. 28 мин. 03 сек.</t>
   </si>
   <si>
     <t>Lakira</t>
   </si>
   <si>
-    <t>544 ч. 58 мин. 8 сек.</t>
+    <t>544 ч. 58 мин. 08 сек.</t>
   </si>
   <si>
     <t>99</t>
@@ -869,7 +869,7 @@
     <t>оно</t>
   </si>
   <si>
-    <t>24 ч. 56 мин. 9 сек.</t>
+    <t>24 ч. 56 мин. 09 сек.</t>
   </si>
   <si>
     <t>Muwka_C_CeBePa</t>
@@ -896,7 +896,7 @@
     <t>Archiffa</t>
   </si>
   <si>
-    <t>29 ч. 8 мин. 0 сек.</t>
+    <t>29 ч. 08 мин. 00 сек.</t>
   </si>
   <si>
     <t>107–112</t>
@@ -917,7 +917,7 @@
     <t>Шизонт</t>
   </si>
   <si>
-    <t>38 ч. 9 мин. 18 сек.</t>
+    <t>38 ч. 09 мин. 18 сек.</t>
   </si>
   <si>
     <t>Evil-Sickener</t>
@@ -944,13 +944,13 @@
     <t>Переборыч</t>
   </si>
   <si>
-    <t>292 ч. 6 мин. 54 сек.</t>
+    <t>292 ч. 06 мин. 54 сек.</t>
   </si>
   <si>
     <t>_Nicole_</t>
   </si>
   <si>
-    <t>9 ч. 12 мин. 3 сек.</t>
+    <t>9 ч. 12 мин. 03 сек.</t>
   </si>
   <si>
     <t>115–116</t>
@@ -965,7 +965,7 @@
     <t>Fermmer</t>
   </si>
   <si>
-    <t>178 ч. 41 мин. 2 сек.</t>
+    <t>178 ч. 41 мин. 02 сек.</t>
   </si>
   <si>
     <t>117–118</t>
@@ -995,7 +995,7 @@
     <t>Razip</t>
   </si>
   <si>
-    <t>45 ч. 5 мин. 53 сек.</t>
+    <t>45 ч. 05 мин. 53 сек.</t>
   </si>
   <si>
     <t>121</t>
@@ -1013,7 +1013,7 @@
     <t>olimo</t>
   </si>
   <si>
-    <t>85 ч. 9 мин. 52 сек.</t>
+    <t>85 ч. 09 мин. 52 сек.</t>
   </si>
   <si>
     <t>TocyLuw</t>
@@ -1055,7 +1055,7 @@
     <t>саша</t>
   </si>
   <si>
-    <t>21 ч. 9 мин. 11 сек.</t>
+    <t>21 ч. 09 мин. 11 сек.</t>
   </si>
   <si>
     <t>ПаниБратка</t>
@@ -1088,7 +1088,7 @@
     <t>AcidMan</t>
   </si>
   <si>
-    <t>42 ч. 46 мин. 6 сек.</t>
+    <t>42 ч. 46 мин. 06 сек.</t>
   </si>
   <si>
     <t>system_error</t>
@@ -1184,7 +1184,7 @@
     <t>Speedometer</t>
   </si>
   <si>
-    <t>17 ч. 48 мин. 9 сек.</t>
+    <t>17 ч. 48 мин. 09 сек.</t>
   </si>
   <si>
     <t>Sergey_Ch</t>
@@ -1199,7 +1199,7 @@
     <t>Ivchik</t>
   </si>
   <si>
-    <t>13 ч. 5 мин. 48 сек.</t>
+    <t>13 ч. 05 мин. 48 сек.</t>
   </si>
   <si>
     <t>ChisloPi</t>
@@ -1223,7 +1223,7 @@
     <t>Диктатор</t>
   </si>
   <si>
-    <t>61 ч. 23 мин. 3 сек.</t>
+    <t>61 ч. 23 мин. 03 сек.</t>
   </si>
   <si>
     <t>152</t>
@@ -1253,7 +1253,7 @@
     <t>Smouke</t>
   </si>
   <si>
-    <t>29 ч. 1 мин. 39 сек.</t>
+    <t>29 ч. 01 мин. 39 сек.</t>
   </si>
   <si>
     <t>velocipede</t>
@@ -1280,7 +1280,7 @@
     <t>Corleone99</t>
   </si>
   <si>
-    <t>14 ч. 23 мин. 0 сек.</t>
+    <t>14 ч. 23 мин. 00 сек.</t>
   </si>
   <si>
     <t>AlexeiD</t>
@@ -1337,13 +1337,13 @@
     <t>WWW</t>
   </si>
   <si>
-    <t>42 ч. 0 мин. 18 сек.</t>
+    <t>42 ч. 00 мин. 18 сек.</t>
   </si>
   <si>
     <t>Origin</t>
   </si>
   <si>
-    <t>45 ч. 15 мин. 7 сек.</t>
+    <t>45 ч. 15 мин. 07 сек.</t>
   </si>
   <si>
     <t>169–171</t>
@@ -1364,7 +1364,7 @@
     <t>Healt</t>
   </si>
   <si>
-    <t>43 ч. 2 мин. 33 сек.</t>
+    <t>43 ч. 02 мин. 33 сек.</t>
   </si>
   <si>
     <t>172–173</t>
@@ -1424,7 +1424,7 @@
     <t>iPitbull</t>
   </si>
   <si>
-    <t>13 ч. 3 мин. 8 сек.</t>
+    <t>13 ч. 03 мин. 08 сек.</t>
   </si>
   <si>
     <t>180–185</t>
@@ -1457,7 +1457,7 @@
     <t>coop</t>
   </si>
   <si>
-    <t>104 ч. 52 мин. 3 сек.</t>
+    <t>104 ч. 52 мин. 03 сек.</t>
   </si>
   <si>
     <t>Всего_хорошего</t>
@@ -1472,7 +1472,7 @@
     <t>Воланд</t>
   </si>
   <si>
-    <t>20 ч. 33 мин. 5 сек.</t>
+    <t>20 ч. 33 мин. 05 сек.</t>
   </si>
   <si>
     <t>187–188</t>
@@ -1487,7 +1487,7 @@
     <t>элля</t>
   </si>
   <si>
-    <t>38 ч. 28 мин. 9 сек.</t>
+    <t>38 ч. 28 мин. 09 сек.</t>
   </si>
   <si>
     <t>189–191</t>
@@ -1502,7 +1502,7 @@
     <t>KAYFARYK</t>
   </si>
   <si>
-    <t>17 ч. 4 мин. 39 сек.</t>
+    <t>17 ч. 04 мин. 39 сек.</t>
   </si>
   <si>
     <t>Langolierrr</t>
@@ -1532,7 +1532,7 @@
     <t>Davydoff</t>
   </si>
   <si>
-    <t>98 ч. 33 мин. 5 сек.</t>
+    <t>98 ч. 33 мин. 05 сек.</t>
   </si>
   <si>
     <t>turbulent</t>
@@ -1550,7 +1550,7 @@
     <t>Trantar</t>
   </si>
   <si>
-    <t>25 ч. 8 мин. 7 сек.</t>
+    <t>25 ч. 08 мин. 07 сек.</t>
   </si>
   <si>
     <t>oyasumi</t>
@@ -1562,7 +1562,7 @@
     <t>TuaDop</t>
   </si>
   <si>
-    <t>49 ч. 57 мин. 5 сек.</t>
+    <t>49 ч. 57 мин. 05 сек.</t>
   </si>
   <si>
     <t>KiD2</t>
@@ -1583,7 +1583,7 @@
     <t>Макрушин</t>
   </si>
   <si>
-    <t>12 ч. 6 мин. 17 сек.</t>
+    <t>12 ч. 06 мин. 17 сек.</t>
   </si>
   <si>
     <t>-Wanted-</t>
@@ -1595,7 +1595,7 @@
     <t>Galaad</t>
   </si>
   <si>
-    <t>37 ч. 8 мин. 1 сек.</t>
+    <t>37 ч. 08 мин. 01 сек.</t>
   </si>
   <si>
     <t>205–207</t>
@@ -1604,7 +1604,7 @@
     <t>Rockett</t>
   </si>
   <si>
-    <t>14 ч. 3 мин. 56 сек.</t>
+    <t>14 ч. 03 мин. 56 сек.</t>
   </si>
   <si>
     <t>Efremov</t>
@@ -1670,13 +1670,13 @@
     <t>Boost</t>
   </si>
   <si>
-    <t>10 ч. 49 мин. 7 сек.</t>
+    <t>10 ч. 49 мин. 07 сек.</t>
   </si>
   <si>
     <t>Kenichi</t>
   </si>
   <si>
-    <t>13 ч. 8 мин. 56 сек.</t>
+    <t>13 ч. 08 мин. 56 сек.</t>
   </si>
   <si>
     <t>Carcharias</t>
@@ -1688,7 +1688,7 @@
     <t>ИльдарВолжский</t>
   </si>
   <si>
-    <t>34 ч. 9 мин. 6 сек.</t>
+    <t>34 ч. 09 мин. 06 сек.</t>
   </si>
   <si>
     <t>fabulaspb</t>
@@ -1718,7 +1718,7 @@
     <t>ourplay</t>
   </si>
   <si>
-    <t>16 ч. 8 мин. 8 сек.</t>
+    <t>16 ч. 08 мин. 08 сек.</t>
   </si>
   <si>
     <t>dsdt</t>
@@ -1745,7 +1745,7 @@
     <t>FerStY</t>
   </si>
   <si>
-    <t>14 ч. 8 мин. 2 сек.</t>
+    <t>14 ч. 08 мин. 02 сек.</t>
   </si>
   <si>
     <t>HappyHardcore</t>
@@ -1757,7 +1757,7 @@
     <t>ArtemChic</t>
   </si>
   <si>
-    <t>22 ч. 33 мин. 9 сек.</t>
+    <t>22 ч. 33 мин. 09 сек.</t>
   </si>
   <si>
     <t>lvoeu</t>
@@ -1790,7 +1790,7 @@
     <t>Exolon</t>
   </si>
   <si>
-    <t>22 ч. 8 мин. 11 сек.</t>
+    <t>22 ч. 08 мин. 11 сек.</t>
   </si>
   <si>
     <t>Кадий</t>
@@ -1865,7 +1865,7 @@
     <t>Wissen</t>
   </si>
   <si>
-    <t>14 ч. 10 мин. 7 сек.</t>
+    <t>14 ч. 10 мин. 07 сек.</t>
   </si>
   <si>
     <t>Дед-Пихто</t>
@@ -1886,7 +1886,7 @@
     <t>Catsvill</t>
   </si>
   <si>
-    <t>14 ч. 33 мин. 4 сек.</t>
+    <t>14 ч. 33 мин. 04 сек.</t>
   </si>
   <si>
     <t>batkovich</t>
@@ -1901,7 +1901,7 @@
     <t>klinser</t>
   </si>
   <si>
-    <t>11 ч. 42 мин. 0 сек.</t>
+    <t>11 ч. 42 мин. 00 сек.</t>
   </si>
   <si>
     <t>Березовский</t>
@@ -2039,13 +2039,13 @@
     <t>Bolot</t>
   </si>
   <si>
-    <t>19 ч. 7 мин. 40 сек.</t>
+    <t>19 ч. 07 мин. 40 сек.</t>
   </si>
   <si>
     <t>гопота</t>
   </si>
   <si>
-    <t>22 ч. 1 мин. 34 сек.</t>
+    <t>22 ч. 01 мин. 34 сек.</t>
   </si>
   <si>
     <t>косогор_</t>
@@ -2075,13 +2075,13 @@
     <t>menoxe</t>
   </si>
   <si>
-    <t>56 ч. 0 мин. 59 сек.</t>
+    <t>56 ч. 00 мин. 59 сек.</t>
   </si>
   <si>
     <t>Leu</t>
   </si>
   <si>
-    <t>189 ч. 7 мин. 1 сек.</t>
+    <t>189 ч. 07 мин. 01 сек.</t>
   </si>
   <si>
     <t>277</t>
@@ -2105,7 +2105,7 @@
     <t>Рыжая_</t>
   </si>
   <si>
-    <t>59 ч. 37 мин. 9 сек.</t>
+    <t>59 ч. 37 мин. 09 сек.</t>
   </si>
   <si>
     <t>iji</t>
@@ -2126,13 +2126,13 @@
     <t>zabiyka</t>
   </si>
   <si>
-    <t>10 ч. 4 мин. 7 сек.</t>
+    <t>10 ч. 04 мин. 07 сек.</t>
   </si>
   <si>
     <t>Сашаааааа</t>
   </si>
   <si>
-    <t>18 ч. 0 мин. 4 сек.</t>
+    <t>18 ч. 00 мин. 04 сек.</t>
   </si>
   <si>
     <t>284–286</t>
@@ -2147,7 +2147,7 @@
     <t>Ethicon</t>
   </si>
   <si>
-    <t>60 ч. 4 мин. 17 сек.</t>
+    <t>60 ч. 04 мин. 17 сек.</t>
   </si>
   <si>
     <t>kstotik</t>
@@ -2162,13 +2162,13 @@
     <t>MironART</t>
   </si>
   <si>
-    <t>111 ч. 45 мин. 4 сек.</t>
+    <t>111 ч. 45 мин. 04 сек.</t>
   </si>
   <si>
     <t>qazwsxqwe2</t>
   </si>
   <si>
-    <t>328 ч. 55 мин. 0 сек.</t>
+    <t>328 ч. 55 мин. 00 сек.</t>
   </si>
   <si>
     <t>faiteslamour</t>
@@ -2195,19 +2195,19 @@
     <t>WERT7</t>
   </si>
   <si>
-    <t>18 ч. 24 мин. 8 сек.</t>
+    <t>18 ч. 24 мин. 08 сек.</t>
   </si>
   <si>
     <t>Paragogg</t>
   </si>
   <si>
-    <t>18 ч. 56 мин. 0 сек.</t>
+    <t>18 ч. 56 мин. 00 сек.</t>
   </si>
   <si>
     <t>PurpleFish</t>
   </si>
   <si>
-    <t>23 ч. 58 мин. 7 сек.</t>
+    <t>23 ч. 58 мин. 07 сек.</t>
   </si>
   <si>
     <t>CoffeePower</t>
@@ -2246,7 +2246,7 @@
     <t>1ilyouha</t>
   </si>
   <si>
-    <t>11 ч. 3 мин. 47 сек.</t>
+    <t>11 ч. 03 мин. 47 сек.</t>
   </si>
   <si>
     <t>-Vovik-</t>
@@ -2258,7 +2258,7 @@
     <t>VodViktor</t>
   </si>
   <si>
-    <t>13 ч. 8 мин. 16 сек.</t>
+    <t>13 ч. 08 мин. 16 сек.</t>
   </si>
   <si>
     <t>mileranceee</t>
@@ -2285,7 +2285,7 @@
     <t>__Anastasia__</t>
   </si>
   <si>
-    <t>64 ч. 24 мин. 6 сек.</t>
+    <t>64 ч. 24 мин. 06 сек.</t>
   </si>
   <si>
     <t>amadeus01</t>
@@ -2312,7 +2312,7 @@
     <t>Alex199</t>
   </si>
   <si>
-    <t>12 ч. 9 мин. 32 сек.</t>
+    <t>12 ч. 09 мин. 32 сек.</t>
   </si>
   <si>
     <t>Примус_починяю</t>
@@ -2324,13 +2324,13 @@
     <t>nosferatum</t>
   </si>
   <si>
-    <t>33 ч. 3 мин. 6 сек.</t>
+    <t>33 ч. 03 мин. 06 сек.</t>
   </si>
   <si>
     <t>ILyaDens</t>
   </si>
   <si>
-    <t>38 ч. 1 мин. 47 сек.</t>
+    <t>38 ч. 01 мин. 47 сек.</t>
   </si>
   <si>
     <t>314–318</t>
@@ -2405,7 +2405,7 @@
     <t>korzhik-by</t>
   </si>
   <si>
-    <t>35 ч. 38 мин. 8 сек.</t>
+    <t>35 ч. 38 мин. 08 сек.</t>
   </si>
   <si>
     <t>325–329</t>
@@ -2420,13 +2420,13 @@
     <t>ЦАРЬ</t>
   </si>
   <si>
-    <t>16 ч. 1 мин. 57 сек.</t>
+    <t>16 ч. 01 мин. 57 сек.</t>
   </si>
   <si>
     <t>-HuKa-</t>
   </si>
   <si>
-    <t>16 ч. 2 мин. 54 сек.</t>
+    <t>16 ч. 02 мин. 54 сек.</t>
   </si>
   <si>
     <t>MMMAAANNN</t>
@@ -2453,7 +2453,7 @@
     <t>Анна_Банановна</t>
   </si>
   <si>
-    <t>159 ч. 6 мин. 17 сек.</t>
+    <t>159 ч. 06 мин. 17 сек.</t>
   </si>
   <si>
     <t>332–334</t>
@@ -2468,7 +2468,7 @@
     <t>турандот</t>
   </si>
   <si>
-    <t>50 ч. 46 мин. 7 сек.</t>
+    <t>50 ч. 46 мин. 07 сек.</t>
   </si>
   <si>
     <t>albert-</t>
@@ -2513,7 +2513,7 @@
     <t>Hovga</t>
   </si>
   <si>
-    <t>43 ч. 8 мин. 24 сек.</t>
+    <t>43 ч. 08 мин. 24 сек.</t>
   </si>
   <si>
     <t>341–346</t>
@@ -2540,7 +2540,7 @@
     <t>Dimax-</t>
   </si>
   <si>
-    <t>28 ч. 36 мин. 8 сек.</t>
+    <t>28 ч. 36 мин. 08 сек.</t>
   </si>
   <si>
     <t>tmpd</t>
@@ -2552,7 +2552,7 @@
     <t>Буквы</t>
   </si>
   <si>
-    <t>44 ч. 6 мин. 59 сек.</t>
+    <t>44 ч. 06 мин. 59 сек.</t>
   </si>
   <si>
     <t>347–349</t>
@@ -2567,7 +2567,7 @@
     <t>Марафонолюбец</t>
   </si>
   <si>
-    <t>88 ч. 53 мин. 3 сек.</t>
+    <t>88 ч. 53 мин. 03 сек.</t>
   </si>
   <si>
     <t>Realshi</t>
@@ -2639,7 +2639,7 @@
     <t>Емерал</t>
   </si>
   <si>
-    <t>23 ч. 53 мин. 7 сек.</t>
+    <t>23 ч. 53 мин. 07 сек.</t>
   </si>
   <si>
     <t>sav1</t>
@@ -2699,7 +2699,7 @@
     <t>d4sher</t>
   </si>
   <si>
-    <t>9 ч. 8 мин. 53 сек.</t>
+    <t>9 ч. 08 мин. 53 сек.</t>
   </si>
   <si>
     <t>pa4loed</t>
@@ -2735,7 +2735,7 @@
     <t>Велимира</t>
   </si>
   <si>
-    <t>72 ч. 16 мин. 7 сек.</t>
+    <t>72 ч. 16 мин. 07 сек.</t>
   </si>
   <si>
     <t>375–377</t>
@@ -2750,7 +2750,7 @@
     <t>Мирный</t>
   </si>
   <si>
-    <t>27 ч. 46 мин. 6 сек.</t>
+    <t>27 ч. 46 мин. 06 сек.</t>
   </si>
   <si>
     <t>Arbiter</t>
@@ -2765,13 +2765,13 @@
     <t>Adigas</t>
   </si>
   <si>
-    <t>9 ч. 3 мин. 48 сек.</t>
+    <t>9 ч. 03 мин. 48 сек.</t>
   </si>
   <si>
     <t>maxon4ik</t>
   </si>
   <si>
-    <t>13 ч. 24 мин. 7 сек.</t>
+    <t>13 ч. 24 мин. 07 сек.</t>
   </si>
   <si>
     <t>Alli-Shi</t>
@@ -2816,7 +2816,7 @@
     <t>WellMaxT</t>
   </si>
   <si>
-    <t>33 ч. 9 мин. 43 сек.</t>
+    <t>33 ч. 09 мин. 43 сек.</t>
   </si>
   <si>
     <t>Athelas</t>
@@ -2834,7 +2834,7 @@
     <t>RODIS</t>
   </si>
   <si>
-    <t>184 ч. 19 мин. 7 сек.</t>
+    <t>184 ч. 19 мин. 07 сек.</t>
   </si>
   <si>
     <t>390–392</t>
@@ -2876,7 +2876,7 @@
     <t>Passer</t>
   </si>
   <si>
-    <t>24 ч. 58 мин. 9 сек.</t>
+    <t>24 ч. 58 мин. 09 сек.</t>
   </si>
   <si>
     <t>Рустамко</t>
@@ -2897,7 +2897,7 @@
     <t>farochka</t>
   </si>
   <si>
-    <t>202 ч. 5 мин. 1 сек.</t>
+    <t>202 ч. 05 мин. 01 сек.</t>
   </si>
   <si>
     <t>qw10fing</t>
@@ -2915,13 +2915,13 @@
     <t>mitra2013</t>
   </si>
   <si>
-    <t>10 ч. 4 мин. 3 сек.</t>
+    <t>10 ч. 04 мин. 03 сек.</t>
   </si>
   <si>
     <t>Vasnody</t>
   </si>
   <si>
-    <t>10 ч. 9 мин. 20 сек.</t>
+    <t>10 ч. 09 мин. 20 сек.</t>
   </si>
   <si>
     <t>403–406</t>
@@ -2930,7 +2930,7 @@
     <t>петрови4</t>
   </si>
   <si>
-    <t>10 ч. 4 мин. 21 сек.</t>
+    <t>10 ч. 04 мин. 21 сек.</t>
   </si>
   <si>
     <t>Krokodil</t>
@@ -2942,13 +2942,13 @@
     <t>cinis</t>
   </si>
   <si>
-    <t>26 ч. 50 мин. 5 сек.</t>
+    <t>26 ч. 50 мин. 05 сек.</t>
   </si>
   <si>
     <t>Thtas</t>
   </si>
   <si>
-    <t>56 ч. 0 мин. 38 сек.</t>
+    <t>56 ч. 00 мин. 38 сек.</t>
   </si>
   <si>
     <t>407–408</t>
@@ -2957,13 +2957,13 @@
     <t>Deni4</t>
   </si>
   <si>
-    <t>9 ч. 54 мин. 1 сек.</t>
+    <t>9 ч. 54 мин. 01 сек.</t>
   </si>
   <si>
     <t>awefork</t>
   </si>
   <si>
-    <t>55 ч. 8 мин. 43 сек.</t>
+    <t>55 ч. 08 мин. 43 сек.</t>
   </si>
   <si>
     <t>409–411</t>
@@ -2978,7 +2978,7 @@
     <t>большой_плавец</t>
   </si>
   <si>
-    <t>35 ч. 29 мин. 3 сек.</t>
+    <t>35 ч. 29 мин. 03 сек.</t>
   </si>
   <si>
     <t>Telefunkenist</t>
@@ -3011,7 +3011,7 @@
     <t>nastik</t>
   </si>
   <si>
-    <t>17 ч. 47 мин. 7 сек.</t>
+    <t>17 ч. 47 мин. 07 сек.</t>
   </si>
   <si>
     <t>cal-lek</t>
@@ -3071,7 +3071,7 @@
     <t>iOlga</t>
   </si>
   <si>
-    <t>142 ч. 38 мин. 3 сек.</t>
+    <t>142 ч. 38 мин. 03 сек.</t>
   </si>
   <si>
     <t>blablaaa</t>
@@ -3104,13 +3104,13 @@
     <t>Снус</t>
   </si>
   <si>
-    <t>12 ч. 3 мин. 19 сек.</t>
+    <t>12 ч. 03 мин. 19 сек.</t>
   </si>
   <si>
     <t>Байт</t>
   </si>
   <si>
-    <t>17 ч. 2 мин. 25 сек.</t>
+    <t>17 ч. 02 мин. 25 сек.</t>
   </si>
   <si>
     <t>431</t>
@@ -3119,7 +3119,7 @@
     <t>SEFER</t>
   </si>
   <si>
-    <t>35 ч. 53 мин. 4 сек.</t>
+    <t>35 ч. 53 мин. 04 сек.</t>
   </si>
   <si>
     <t>432–444</t>
@@ -3134,7 +3134,7 @@
     <t>бебебе</t>
   </si>
   <si>
-    <t>9 ч. 3 мин. 18 сек.</t>
+    <t>9 ч. 03 мин. 18 сек.</t>
   </si>
   <si>
     <t>nigahigga</t>
@@ -3152,7 +3152,7 @@
     <t>Oknevor</t>
   </si>
   <si>
-    <t>15 ч. 3 мин. 54 сек.</t>
+    <t>15 ч. 03 мин. 54 сек.</t>
   </si>
   <si>
     <t>gaintsev</t>
@@ -3164,25 +3164,25 @@
     <t>ТРЕКК</t>
   </si>
   <si>
-    <t>17 ч. 59 мин. 6 сек.</t>
+    <t>17 ч. 59 мин. 06 сек.</t>
   </si>
   <si>
     <t>lucky-man</t>
   </si>
   <si>
-    <t>19 ч. 46 мин. 1 сек.</t>
+    <t>19 ч. 46 мин. 01 сек.</t>
   </si>
   <si>
     <t>Manmax10</t>
   </si>
   <si>
-    <t>25 ч. 54 мин. 9 сек.</t>
+    <t>25 ч. 54 мин. 09 сек.</t>
   </si>
   <si>
     <t>Ai_bek</t>
   </si>
   <si>
-    <t>35 ч. 8 мин. 16 сек.</t>
+    <t>35 ч. 08 мин. 16 сек.</t>
   </si>
   <si>
     <t>NigVan</t>
@@ -3257,7 +3257,7 @@
     <t>korden</t>
   </si>
   <si>
-    <t>25 ч. 48 мин. 5 сек.</t>
+    <t>25 ч. 48 мин. 05 сек.</t>
   </si>
   <si>
     <t>Zikting</t>
@@ -3278,7 +3278,7 @@
     <t>Clara_Oswald</t>
   </si>
   <si>
-    <t>95 ч. 22 мин. 5 сек.</t>
+    <t>95 ч. 22 мин. 05 сек.</t>
   </si>
   <si>
     <t>Олександр1</t>
@@ -3296,7 +3296,7 @@
     <t>ifer</t>
   </si>
   <si>
-    <t>23 ч. 8 мин. 13 сек.</t>
+    <t>23 ч. 08 мин. 13 сек.</t>
   </si>
   <si>
     <t>Amateur_</t>
@@ -3317,13 +3317,13 @@
     <t>200поСкоростной</t>
   </si>
   <si>
-    <t>26 ч. 56 мин. 8 сек.</t>
+    <t>26 ч. 56 мин. 08 сек.</t>
   </si>
   <si>
     <t>VanDyk</t>
   </si>
   <si>
-    <t>35 ч. 5 мин. 35 сек.</t>
+    <t>35 ч. 05 мин. 35 сек.</t>
   </si>
   <si>
     <t>_Жемчужинка_</t>
@@ -3401,13 +3401,13 @@
     <t>-LVV-</t>
   </si>
   <si>
-    <t>16 ч. 29 мин. 1 сек.</t>
+    <t>16 ч. 29 мин. 01 сек.</t>
   </si>
   <si>
     <t>xcislav</t>
   </si>
   <si>
-    <t>33 ч. 16 мин. 4 сек.</t>
+    <t>33 ч. 16 мин. 04 сек.</t>
   </si>
   <si>
     <t>felicia_</t>
@@ -3428,7 +3428,7 @@
     <t>casio384</t>
   </si>
   <si>
-    <t>15 ч. 43 мин. 3 сек.</t>
+    <t>15 ч. 43 мин. 03 сек.</t>
   </si>
   <si>
     <t>mozaroc</t>
@@ -3446,7 +3446,7 @@
     <t>Alsim</t>
   </si>
   <si>
-    <t>54 ч. 2 мин. 52 сек.</t>
+    <t>54 ч. 02 мин. 52 сек.</t>
   </si>
   <si>
     <t>Кибертаксист</t>
@@ -3461,7 +3461,7 @@
     <t>snov</t>
   </si>
   <si>
-    <t>116 ч. 7 мин. 21 сек.</t>
+    <t>116 ч. 07 мин. 21 сек.</t>
   </si>
   <si>
     <t>дадачтоизвините</t>
@@ -3479,7 +3479,7 @@
     <t>Лии</t>
   </si>
   <si>
-    <t>10 ч. 7 мин. 27 сек.</t>
+    <t>10 ч. 07 мин. 27 сек.</t>
   </si>
   <si>
     <t>fast_turtle</t>
@@ -3530,7 +3530,7 @@
     <t>newsuslik</t>
   </si>
   <si>
-    <t>21 ч. 3 мин. 43 сек.</t>
+    <t>21 ч. 03 мин. 43 сек.</t>
   </si>
   <si>
     <t>Mayflower</t>
@@ -3542,13 +3542,13 @@
     <t>samaja-samaja</t>
   </si>
   <si>
-    <t>43 ч. 8 мин. 1 сек.</t>
+    <t>43 ч. 08 мин. 01 сек.</t>
   </si>
   <si>
     <t>takobus</t>
   </si>
   <si>
-    <t>48 ч. 33 мин. 8 сек.</t>
+    <t>48 ч. 33 мин. 08 сек.</t>
   </si>
   <si>
     <t>499–501</t>
@@ -3557,7 +3557,7 @@
     <t>die-hard</t>
   </si>
   <si>
-    <t>24 ч. 57 мин. 6 сек.</t>
+    <t>24 ч. 57 мин. 06 сек.</t>
   </si>
   <si>
     <t>Natalochka</t>
@@ -3569,7 +3569,7 @@
     <t>Gardenstone</t>
   </si>
   <si>
-    <t>67 ч. 14 мин. 0 сек.</t>
+    <t>67 ч. 14 мин. 00 сек.</t>
   </si>
   <si>
     <t>502–506</t>
@@ -3617,13 +3617,13 @@
     <t>jaberoid</t>
   </si>
   <si>
-    <t>10 ч. 4 мин. 24 сек.</t>
+    <t>10 ч. 04 мин. 24 сек.</t>
   </si>
   <si>
     <t>avisz</t>
   </si>
   <si>
-    <t>10 ч. 9 мин. 4 сек.</t>
+    <t>10 ч. 09 мин. 04 сек.</t>
   </si>
   <si>
     <t>Suvoroff</t>
@@ -3647,7 +3647,7 @@
     <t>carmero</t>
   </si>
   <si>
-    <t>174 ч. 4 мин. 24 сек.</t>
+    <t>174 ч. 04 мин. 24 сек.</t>
   </si>
   <si>
     <t>514–518</t>
@@ -3656,7 +3656,7 @@
     <t>Drumerspb</t>
   </si>
   <si>
-    <t>346 ч. 0 мин. 45 сек.</t>
+    <t>346 ч. 00 мин. 45 сек.</t>
   </si>
   <si>
     <t>Gekh</t>
@@ -3689,7 +3689,7 @@
     <t>Dobby_</t>
   </si>
   <si>
-    <t>177 ч. 48 мин. 4 сек.</t>
+    <t>177 ч. 48 мин. 04 сек.</t>
   </si>
   <si>
     <t>520–521</t>
@@ -3698,13 +3698,13 @@
     <t>Wassja</t>
   </si>
   <si>
-    <t>93 ч. 8 мин. 19 сек.</t>
+    <t>93 ч. 08 мин. 19 сек.</t>
   </si>
   <si>
     <t>tyrpyr</t>
   </si>
   <si>
-    <t>1463 ч. 5 мин. 8 сек.</t>
+    <t>1463 ч. 05 мин. 08 сек.</t>
   </si>
   <si>
     <t>522–527</t>
@@ -3713,7 +3713,7 @@
     <t>Вова_10</t>
   </si>
   <si>
-    <t>8 ч. 59 мин. 2 сек.</t>
+    <t>8 ч. 59 мин. 02 сек.</t>
   </si>
   <si>
     <t>Мятный_заход</t>
@@ -3731,7 +3731,7 @@
     <t>belkaoboroten</t>
   </si>
   <si>
-    <t>32 ч. 8 мин. 32 сек.</t>
+    <t>32 ч. 08 мин. 32 сек.</t>
   </si>
   <si>
     <t>NDancer</t>
@@ -3770,19 +3770,19 @@
     <t>Ващук</t>
   </si>
   <si>
-    <t>15 ч. 7 мин. 48 сек.</t>
+    <t>15 ч. 07 мин. 48 сек.</t>
   </si>
   <si>
     <t>Pale_Rider</t>
   </si>
   <si>
-    <t>19 ч. 5 мин. 1 сек.</t>
+    <t>19 ч. 05 мин. 01 сек.</t>
   </si>
   <si>
     <t>Gistereziz</t>
   </si>
   <si>
-    <t>23 ч. 17 мин. 5 сек.</t>
+    <t>23 ч. 17 мин. 05 сек.</t>
   </si>
   <si>
     <t>забей</t>
@@ -3794,13 +3794,13 @@
     <t>Artursrst</t>
   </si>
   <si>
-    <t>25 ч. 9 мин. 29 сек.</t>
+    <t>25 ч. 09 мин. 29 сек.</t>
   </si>
   <si>
     <t>Smylic</t>
   </si>
   <si>
-    <t>27 ч. 2 мин. 10 сек.</t>
+    <t>27 ч. 02 мин. 10 сек.</t>
   </si>
   <si>
     <t>BlazWin</t>
@@ -3827,19 +3827,19 @@
     <t>Demien89</t>
   </si>
   <si>
-    <t>14 ч. 26 мин. 6 сек.</t>
+    <t>14 ч. 26 мин. 06 сек.</t>
   </si>
   <si>
     <t>Импульс</t>
   </si>
   <si>
-    <t>16 ч. 2 мин. 40 сек.</t>
+    <t>16 ч. 02 мин. 40 сек.</t>
   </si>
   <si>
     <t>Genek</t>
   </si>
   <si>
-    <t>20 ч. 9 мин. 16 сек.</t>
+    <t>20 ч. 09 мин. 16 сек.</t>
   </si>
   <si>
     <t>Avensis</t>
@@ -3851,7 +3851,7 @@
     <t>hrenovaya_klava</t>
   </si>
   <si>
-    <t>37 ч. 9 мин. 45 сек.</t>
+    <t>37 ч. 09 мин. 45 сек.</t>
   </si>
   <si>
     <t>Espera</t>
@@ -3878,7 +3878,7 @@
     <t>Алька007</t>
   </si>
   <si>
-    <t>15 ч. 6 мин. 51 сек.</t>
+    <t>15 ч. 06 мин. 51 сек.</t>
   </si>
   <si>
     <t>бо1</t>
@@ -3890,13 +3890,13 @@
     <t>sanek2144</t>
   </si>
   <si>
-    <t>38 ч. 6 мин. 23 сек.</t>
+    <t>38 ч. 06 мин. 23 сек.</t>
   </si>
   <si>
     <t>Salamandra555</t>
   </si>
   <si>
-    <t>69 ч. 1 мин. 45 сек.</t>
+    <t>69 ч. 01 мин. 45 сек.</t>
   </si>
   <si>
     <t>552–557</t>
@@ -3911,13 +3911,13 @@
     <t>melancholoid</t>
   </si>
   <si>
-    <t>17 ч. 4 мин. 43 сек.</t>
+    <t>17 ч. 04 мин. 43 сек.</t>
   </si>
   <si>
     <t>ДядяСаша</t>
   </si>
   <si>
-    <t>24 ч. 4 мин. 41 сек.</t>
+    <t>24 ч. 04 мин. 41 сек.</t>
   </si>
   <si>
     <t>ASplayer9119</t>
@@ -3950,13 +3950,13 @@
     <t>coffeek</t>
   </si>
   <si>
-    <t>12 ч. 9 мин. 35 сек.</t>
+    <t>12 ч. 09 мин. 35 сек.</t>
   </si>
   <si>
     <t>Razorage</t>
   </si>
   <si>
-    <t>25 ч. 6 мин. 34 сек.</t>
+    <t>25 ч. 06 мин. 34 сек.</t>
   </si>
   <si>
     <t>BibleThump</t>
@@ -4049,7 +4049,7 @@
     <t>едут_подонки</t>
   </si>
   <si>
-    <t>9 ч. 39 мин. 7 сек.</t>
+    <t>9 ч. 39 мин. 07 сек.</t>
   </si>
   <si>
     <t>saben_askhat</t>
@@ -4100,7 +4100,7 @@
     <t>Gorynych</t>
   </si>
   <si>
-    <t>56 ч. 6 мин. 43 сек.</t>
+    <t>56 ч. 06 мин. 43 сек.</t>
   </si>
   <si>
     <t>Ямастер</t>
@@ -4112,7 +4112,7 @@
     <t>evroman</t>
   </si>
   <si>
-    <t>112 ч. 5 мин. 0 сек.</t>
+    <t>112 ч. 05 мин. 00 сек.</t>
   </si>
   <si>
     <t>585–590</t>
@@ -4151,7 +4151,7 @@
     <t>TRIANON</t>
   </si>
   <si>
-    <t>55 ч. 4 мин. 4 сек.</t>
+    <t>55 ч. 04 мин. 04 сек.</t>
   </si>
   <si>
     <t>591–595</t>
@@ -4166,7 +4166,7 @@
     <t>SpazZm</t>
   </si>
   <si>
-    <t>11 ч. 18 мин. 4 сек.</t>
+    <t>11 ч. 18 мин. 04 сек.</t>
   </si>
   <si>
     <t>L44</t>
@@ -4193,7 +4193,7 @@
     <t>Leg</t>
   </si>
   <si>
-    <t>12 ч. 24 мин. 4 сек.</t>
+    <t>12 ч. 24 мин. 04 сек.</t>
   </si>
   <si>
     <t>cupofinsane</t>
@@ -4238,7 +4238,7 @@
     <t>RebeldeWay</t>
   </si>
   <si>
-    <t>40 ч. 8 мин. 52 сек.</t>
+    <t>40 ч. 08 мин. 52 сек.</t>
   </si>
   <si>
     <t>604–610</t>
@@ -4253,7 +4253,7 @@
     <t>Bombo</t>
   </si>
   <si>
-    <t>13 ч. 50 мин. 1 сек.</t>
+    <t>13 ч. 50 мин. 01 сек.</t>
   </si>
   <si>
     <t>GoTonyGo</t>
@@ -4265,13 +4265,13 @@
     <t>Алексей_Дао</t>
   </si>
   <si>
-    <t>25 ч. 28 мин. 1 сек.</t>
+    <t>25 ч. 28 мин. 01 сек.</t>
   </si>
   <si>
     <t>Атата</t>
   </si>
   <si>
-    <t>35 ч. 32 мин. 7 сек.</t>
+    <t>35 ч. 32 мин. 07 сек.</t>
   </si>
   <si>
     <t>Старец</t>
@@ -4283,7 +4283,7 @@
     <t>gosha_bel</t>
   </si>
   <si>
-    <t>75 ч. 8 мин. 23 сек.</t>
+    <t>75 ч. 08 мин. 23 сек.</t>
   </si>
   <si>
     <t>611–615</t>
@@ -4298,7 +4298,7 @@
     <t>Fudochi</t>
   </si>
   <si>
-    <t>17 ч. 9 мин. 8 сек.</t>
+    <t>17 ч. 09 мин. 08 сек.</t>
   </si>
   <si>
     <t>kakvaska</t>
@@ -4310,7 +4310,7 @@
     <t>ivanova1789</t>
   </si>
   <si>
-    <t>62 ч. 25 мин. 7 сек.</t>
+    <t>62 ч. 25 мин. 07 сек.</t>
   </si>
   <si>
     <t>Mirtum</t>
@@ -4343,7 +4343,7 @@
     <t>Lyuda</t>
   </si>
   <si>
-    <t>12 ч. 24 мин. 1 сек.</t>
+    <t>12 ч. 24 мин. 01 сек.</t>
   </si>
   <si>
     <t>620–623</t>
@@ -4400,7 +4400,7 @@
     <t>Jon31</t>
   </si>
   <si>
-    <t>114 ч. 4 мин. 5 сек.</t>
+    <t>114 ч. 04 мин. 05 сек.</t>
   </si>
   <si>
     <t>629–633</t>
@@ -4409,7 +4409,7 @@
     <t>Tasko</t>
   </si>
   <si>
-    <t>14 ч. 4 мин. 40 сек.</t>
+    <t>14 ч. 04 мин. 40 сек.</t>
   </si>
   <si>
     <t>vladex</t>
@@ -4427,7 +4427,7 @@
     <t>Lexanni</t>
   </si>
   <si>
-    <t>31 ч. 3 мин. 47 сек.</t>
+    <t>31 ч. 03 мин. 47 сек.</t>
   </si>
   <si>
     <t>x2es</t>
@@ -4442,7 +4442,7 @@
     <t>MirZz</t>
   </si>
   <si>
-    <t>12 ч. 9 мин. 19 сек.</t>
+    <t>12 ч. 09 мин. 19 сек.</t>
   </si>
   <si>
     <t>Nexuspro</t>
@@ -4517,13 +4517,13 @@
     <t>Катрен</t>
   </si>
   <si>
-    <t>8 ч. 34 мин. 0 сек.</t>
+    <t>8 ч. 34 мин. 00 сек.</t>
   </si>
   <si>
     <t>Наконец-то</t>
   </si>
   <si>
-    <t>11 ч. 49 мин. 6 сек.</t>
+    <t>11 ч. 49 мин. 06 сек.</t>
   </si>
   <si>
     <t>01egas</t>
@@ -4595,7 +4595,7 @@
     <t>Визирь</t>
   </si>
   <si>
-    <t>11 ч. 13 мин. 3 сек.</t>
+    <t>11 ч. 13 мин. 03 сек.</t>
   </si>
   <si>
     <t>_NoMaD_</t>
@@ -4619,7 +4619,7 @@
     <t>Клавишник</t>
   </si>
   <si>
-    <t>35 ч. 2 мин. 50 сек.</t>
+    <t>35 ч. 02 мин. 50 сек.</t>
   </si>
   <si>
     <t>663–674</t>
@@ -4628,13 +4628,13 @@
     <t>AaalexIV</t>
   </si>
   <si>
-    <t>9 ч. 4 мин. 18 сек.</t>
+    <t>9 ч. 04 мин. 18 сек.</t>
   </si>
   <si>
     <t>Smartzero</t>
   </si>
   <si>
-    <t>10 ч. 1 мин. 23 сек.</t>
+    <t>10 ч. 01 мин. 23 сек.</t>
   </si>
   <si>
     <t>Radius</t>
@@ -4646,13 +4646,13 @@
     <t>Matafix</t>
   </si>
   <si>
-    <t>17 ч. 29 мин. 5 сек.</t>
+    <t>17 ч. 29 мин. 05 сек.</t>
   </si>
   <si>
     <t>plop</t>
   </si>
   <si>
-    <t>18 ч. 8 мин. 35 сек.</t>
+    <t>18 ч. 08 мин. 35 сек.</t>
   </si>
   <si>
     <t>LinaMakarova</t>
@@ -4664,7 +4664,7 @@
     <t>bitjr</t>
   </si>
   <si>
-    <t>22 ч. 39 мин. 6 сек.</t>
+    <t>22 ч. 39 мин. 06 сек.</t>
   </si>
   <si>
     <t>Днище_грЕбаное</t>
@@ -4709,7 +4709,7 @@
     <t>Res_Publica</t>
   </si>
   <si>
-    <t>10 ч. 24 мин. 3 сек.</t>
+    <t>10 ч. 24 мин. 03 сек.</t>
   </si>
   <si>
     <t>Semandr</t>
@@ -4733,7 +4733,7 @@
     <t>Slavik89</t>
   </si>
   <si>
-    <t>33 ч. 54 мин. 3 сек.</t>
+    <t>33 ч. 54 мин. 03 сек.</t>
   </si>
   <si>
     <t>Vespertilio</t>
@@ -4760,7 +4760,7 @@
     <t>mcl</t>
   </si>
   <si>
-    <t>13 ч. 3 мин. 25 сек.</t>
+    <t>13 ч. 03 мин. 25 сек.</t>
   </si>
   <si>
     <t>Самаэль</t>
@@ -4790,7 +4790,7 @@
     <t>совет-солдат</t>
   </si>
   <si>
-    <t>56 ч. 8 мин. 44 сек.</t>
+    <t>56 ч. 08 мин. 44 сек.</t>
   </si>
   <si>
     <t>Auril</t>
@@ -4823,7 +4823,7 @@
     <t>Sonick071</t>
   </si>
   <si>
-    <t>18 ч. 9 мин. 23 сек.</t>
+    <t>18 ч. 09 мин. 23 сек.</t>
   </si>
   <si>
     <t>doklls</t>
@@ -4838,13 +4838,13 @@
     <t>6apcuk</t>
   </si>
   <si>
-    <t>12 ч. 48 мин. 3 сек.</t>
+    <t>12 ч. 48 мин. 03 сек.</t>
   </si>
   <si>
     <t>KitsuneSpirit</t>
   </si>
   <si>
-    <t>16 ч. 4 мин. 45 сек.</t>
+    <t>16 ч. 04 мин. 45 сек.</t>
   </si>
   <si>
     <t>NordVic</t>
@@ -4856,7 +4856,7 @@
     <t>rseniy3</t>
   </si>
   <si>
-    <t>19 ч. 54 мин. 8 сек.</t>
+    <t>19 ч. 54 мин. 08 сек.</t>
   </si>
   <si>
     <t>suenot</t>
@@ -4877,7 +4877,7 @@
     <t>Antonio_Zts</t>
   </si>
   <si>
-    <t>11 ч. 27 мин. 6 сек.</t>
+    <t>11 ч. 27 мин. 06 сек.</t>
   </si>
   <si>
     <t>Stoz</t>
@@ -4889,7 +4889,7 @@
     <t>batton</t>
   </si>
   <si>
-    <t>13 ч. 38 мин. 9 сек.</t>
+    <t>13 ч. 38 мин. 09 сек.</t>
   </si>
   <si>
     <t>Валацуга</t>
@@ -4958,7 +4958,7 @@
     <t>Dzihiko</t>
   </si>
   <si>
-    <t>23 ч. 8 мин. 10 сек.</t>
+    <t>23 ч. 08 мин. 10 сек.</t>
   </si>
   <si>
     <t>Мимо_Крокодил</t>
@@ -5045,7 +5045,7 @@
     <t>Raymank26</t>
   </si>
   <si>
-    <t>10 ч. 3 мин. 31 сек.</t>
+    <t>10 ч. 03 мин. 31 сек.</t>
   </si>
   <si>
     <t>Floopyy</t>
@@ -5105,13 +5105,13 @@
     <t>hilaris</t>
   </si>
   <si>
-    <t>12 ч. 14 мин. 2 сек.</t>
+    <t>12 ч. 14 мин. 02 сек.</t>
   </si>
   <si>
     <t>O_o-Fiery</t>
   </si>
   <si>
-    <t>13 ч. 8 мин. 40 сек.</t>
+    <t>13 ч. 08 мин. 40 сек.</t>
   </si>
   <si>
     <t>Тинейджер2004</t>
@@ -5156,7 +5156,7 @@
     <t>TigArt</t>
   </si>
   <si>
-    <t>12 ч. 4 мин. 29 сек.</t>
+    <t>12 ч. 04 мин. 29 сек.</t>
   </si>
   <si>
     <t>kozinak</t>
@@ -5180,7 +5180,7 @@
     <t>spacem0nkey</t>
   </si>
   <si>
-    <t>19 ч. 8 мин. 40 сек.</t>
+    <t>19 ч. 08 мин. 40 сек.</t>
   </si>
   <si>
     <t>Dencom</t>
@@ -5225,7 +5225,7 @@
     <t>пава</t>
   </si>
   <si>
-    <t>34 ч. 6 мин. 35 сек.</t>
+    <t>34 ч. 06 мин. 35 сек.</t>
   </si>
   <si>
     <t>8ele8</t>
@@ -5246,7 +5246,7 @@
     <t>morozovlalex</t>
   </si>
   <si>
-    <t>8 ч. 49 мин. 3 сек.</t>
+    <t>8 ч. 49 мин. 03 сек.</t>
   </si>
   <si>
     <t>NineFingers</t>
@@ -5273,7 +5273,7 @@
     <t>Nicel</t>
   </si>
   <si>
-    <t>15 ч. 4 мин. 26 сек.</t>
+    <t>15 ч. 04 мин. 26 сек.</t>
   </si>
   <si>
     <t>tfn3k</t>
@@ -5285,7 +5285,7 @@
     <t>VOLLUF</t>
   </si>
   <si>
-    <t>24 ч. 6 мин. 17 сек.</t>
+    <t>24 ч. 06 мин. 17 сек.</t>
   </si>
   <si>
     <t>Хазов</t>
@@ -5366,7 +5366,7 @@
     <t>strawberries</t>
   </si>
   <si>
-    <t>28 ч. 8 мин. 29 сек.</t>
+    <t>28 ч. 08 мин. 29 сек.</t>
   </si>
   <si>
     <t>sorrowful</t>
@@ -5378,19 +5378,19 @@
     <t>Annabeth</t>
   </si>
   <si>
-    <t>31 ч. 12 мин. 2 сек.</t>
+    <t>31 ч. 12 мин. 02 сек.</t>
   </si>
   <si>
     <t>genie_1855</t>
   </si>
   <si>
-    <t>36 ч. 45 мин. 8 сек.</t>
+    <t>36 ч. 45 мин. 08 сек.</t>
   </si>
   <si>
     <t>SkriFo</t>
   </si>
   <si>
-    <t>51 ч. 2 мин. 39 сек.</t>
+    <t>51 ч. 02 мин. 39 сек.</t>
   </si>
   <si>
     <t>DenL</t>
@@ -5411,7 +5411,7 @@
     <t>кофемоль</t>
   </si>
   <si>
-    <t>12 ч. 3 мин. 50 сек.</t>
+    <t>12 ч. 03 мин. 50 сек.</t>
   </si>
   <si>
     <t>scooter</t>
@@ -5435,7 +5435,7 @@
     <t>Aftermathen</t>
   </si>
   <si>
-    <t>27 ч. 1 мин. 28 сек.</t>
+    <t>27 ч. 01 мин. 28 сек.</t>
   </si>
   <si>
     <t>Vanches</t>
@@ -5456,7 +5456,7 @@
     <t>WildMan-23</t>
   </si>
   <si>
-    <t>22 ч. 2 мин. 17 сек.</t>
+    <t>22 ч. 02 мин. 17 сек.</t>
   </si>
   <si>
     <t>UPO</t>
@@ -5474,13 +5474,13 @@
     <t>Krivoy_Palec</t>
   </si>
   <si>
-    <t>54 ч. 0 мин. 8 сек.</t>
+    <t>54 ч. 00 мин. 08 сек.</t>
   </si>
   <si>
     <t>Руфер</t>
   </si>
   <si>
-    <t>286 ч. 39 мин. 5 сек.</t>
+    <t>286 ч. 39 мин. 05 сек.</t>
   </si>
   <si>
     <t>798–800</t>
@@ -5501,7 +5501,7 @@
     <t>Wassjaja</t>
   </si>
   <si>
-    <t>48 ч. 5 мин. 9 сек.</t>
+    <t>48 ч. 05 мин. 09 сек.</t>
   </si>
   <si>
     <t>801–808</t>
@@ -5516,7 +5516,7 @@
     <t>lChi</t>
   </si>
   <si>
-    <t>8 ч. 48 мин. 6 сек.</t>
+    <t>8 ч. 48 мин. 06 сек.</t>
   </si>
   <si>
     <t>Asselen</t>
@@ -5534,7 +5534,7 @@
     <t>meze</t>
   </si>
   <si>
-    <t>47 ч. 0 мин. 12 сек.</t>
+    <t>47 ч. 00 мин. 12 сек.</t>
   </si>
   <si>
     <t>Аурика</t>
@@ -5585,7 +5585,7 @@
     <t>LadyIrina</t>
   </si>
   <si>
-    <t>50 ч. 47 мин. 2 сек.</t>
+    <t>50 ч. 47 мин. 02 сек.</t>
   </si>
   <si>
     <t>colonel</t>
@@ -5612,7 +5612,7 @@
     <t>Jiona</t>
   </si>
   <si>
-    <t>22 ч. 1 мин. 10 сек.</t>
+    <t>22 ч. 01 мин. 10 сек.</t>
   </si>
   <si>
     <t>P4SS3RBY</t>
@@ -5630,7 +5630,7 @@
     <t>agor</t>
   </si>
   <si>
-    <t>103 ч. 2 мин. 4 сек.</t>
+    <t>103 ч. 02 мин. 04 сек.</t>
   </si>
   <si>
     <t>821–830</t>
@@ -5657,7 +5657,7 @@
     <t>Vergessen</t>
   </si>
   <si>
-    <t>10 ч. 30 мин. 4 сек.</t>
+    <t>10 ч. 30 мин. 04 сек.</t>
   </si>
   <si>
     <t>accurst</t>
@@ -5681,7 +5681,7 @@
     <t>IlinaPolina</t>
   </si>
   <si>
-    <t>45 ч. 58 мин. 5 сек.</t>
+    <t>45 ч. 58 мин. 05 сек.</t>
   </si>
   <si>
     <t>Гавик</t>
@@ -5708,7 +5708,7 @@
     <t>FLb</t>
   </si>
   <si>
-    <t>21 ч. 54 мин. 6 сек.</t>
+    <t>21 ч. 54 мин. 06 сек.</t>
   </si>
   <si>
     <t>Tedman</t>
@@ -5747,7 +5747,7 @@
     <t>Ramazan</t>
   </si>
   <si>
-    <t>8 ч. 39 мин. 9 сек.</t>
+    <t>8 ч. 39 мин. 09 сек.</t>
   </si>
   <si>
     <t>supersolder</t>
@@ -5783,7 +5783,7 @@
     <t>Yflytuz</t>
   </si>
   <si>
-    <t>59 ч. 0 мин. 33 сек.</t>
+    <t>59 ч. 00 мин. 33 сек.</t>
   </si>
   <si>
     <t>Чиндрик</t>
@@ -5804,7 +5804,7 @@
     <t>Nataletik</t>
   </si>
   <si>
-    <t>8 ч. 47 мин. 3 сек.</t>
+    <t>8 ч. 47 мин. 03 сек.</t>
   </si>
   <si>
     <t>SplitPerson</t>
@@ -5828,13 +5828,13 @@
     <t>yuzzu</t>
   </si>
   <si>
-    <t>15 ч. 29 мин. 0 сек.</t>
+    <t>15 ч. 29 мин. 00 сек.</t>
   </si>
   <si>
     <t>narciss0</t>
   </si>
   <si>
-    <t>16 ч. 13 мин. 3 сек.</t>
+    <t>16 ч. 13 мин. 03 сек.</t>
   </si>
   <si>
     <t>Z-Buffer</t>
@@ -5846,7 +5846,7 @@
     <t>KaliaN-93RUS</t>
   </si>
   <si>
-    <t>30 ч. 27 мин. 8 сек.</t>
+    <t>30 ч. 27 мин. 08 сек.</t>
   </si>
   <si>
     <t>855–860</t>
@@ -5855,7 +5855,7 @@
     <t>OnlyHim</t>
   </si>
   <si>
-    <t>9 ч. 7 мин. 30 сек.</t>
+    <t>9 ч. 07 мин. 30 сек.</t>
   </si>
   <si>
     <t>Rizlex</t>
@@ -5867,13 +5867,13 @@
     <t>Sunbeam</t>
   </si>
   <si>
-    <t>19 ч. 5 мин. 56 сек.</t>
+    <t>19 ч. 05 мин. 56 сек.</t>
   </si>
   <si>
     <t>Стартуем</t>
   </si>
   <si>
-    <t>25 ч. 43 мин. 8 сек.</t>
+    <t>25 ч. 43 мин. 08 сек.</t>
   </si>
   <si>
     <t>freia</t>
@@ -5894,7 +5894,7 @@
     <t>CBETJIAHA</t>
   </si>
   <si>
-    <t>130 ч. 3 мин. 10 сек.</t>
+    <t>130 ч. 03 мин. 10 сек.</t>
   </si>
   <si>
     <t>SotkaPRO</t>
@@ -5906,7 +5906,7 @@
     <t>nezabivaemiy</t>
   </si>
   <si>
-    <t>8 ч. 55 мин. 5 сек.</t>
+    <t>8 ч. 55 мин. 05 сек.</t>
   </si>
   <si>
     <t>clair</t>
@@ -5936,7 +5936,7 @@
     <t>Страшила</t>
   </si>
   <si>
-    <t>22 ч. 19 мин. 4 сек.</t>
+    <t>22 ч. 19 мин. 04 сек.</t>
   </si>
   <si>
     <t>Берегиня</t>
@@ -5981,7 +5981,7 @@
     <t>miha911208</t>
   </si>
   <si>
-    <t>26 ч. 3 мин. 47 сек.</t>
+    <t>26 ч. 03 мин. 47 сек.</t>
   </si>
   <si>
     <t>876–880</t>
@@ -5990,25 +5990,25 @@
     <t>L_E_O</t>
   </si>
   <si>
-    <t>18 ч. 14 мин. 9 сек.</t>
+    <t>18 ч. 14 мин. 09 сек.</t>
   </si>
   <si>
     <t>vect</t>
   </si>
   <si>
-    <t>41 ч. 9 мин. 43 сек.</t>
+    <t>41 ч. 09 мин. 43 сек.</t>
   </si>
   <si>
     <t>Русинов</t>
   </si>
   <si>
-    <t>56 ч. 6 мин. 2 сек.</t>
+    <t>56 ч. 06 мин. 02 сек.</t>
   </si>
   <si>
     <t>akanat</t>
   </si>
   <si>
-    <t>86 ч. 51 мин. 9 сек.</t>
+    <t>86 ч. 51 мин. 09 сек.</t>
   </si>
   <si>
     <t>Nathaliya</t>
@@ -6023,7 +6023,7 @@
     <t>202</t>
   </si>
   <si>
-    <t>246 ч. 30 мин. 5 сек.</t>
+    <t>246 ч. 30 мин. 05 сек.</t>
   </si>
   <si>
     <t>KILLALLHUMANS</t>
@@ -6047,13 +6047,13 @@
     <t>гага</t>
   </si>
   <si>
-    <t>29 ч. 1 мин. 33 сек.</t>
+    <t>29 ч. 01 мин. 33 сек.</t>
   </si>
   <si>
     <t>Lusil</t>
   </si>
   <si>
-    <t>33 ч. 4 мин. 28 сек.</t>
+    <t>33 ч. 04 мин. 28 сек.</t>
   </si>
   <si>
     <t>887–895</t>
@@ -6062,7 +6062,7 @@
     <t>DenisConqueror</t>
   </si>
   <si>
-    <t>8 ч. 20 мин. 7 сек.</t>
+    <t>8 ч. 20 мин. 07 сек.</t>
   </si>
   <si>
     <t>M-O-R-G-A-N</t>
@@ -6143,7 +6143,7 @@
     <t>Escamillo</t>
   </si>
   <si>
-    <t>18 ч. 24 мин. 4 сек.</t>
+    <t>18 ч. 24 мин. 04 сек.</t>
   </si>
   <si>
     <t>classifiedman</t>
@@ -6173,7 +6173,7 @@
     <t>ggs</t>
   </si>
   <si>
-    <t>47 ч. 9 мин. 39 сек.</t>
+    <t>47 ч. 09 мин. 39 сек.</t>
   </si>
   <si>
     <t>yulya_95</t>
@@ -6188,13 +6188,13 @@
     <t>9IMopkoBka</t>
   </si>
   <si>
-    <t>14 ч. 3 мин. 29 сек.</t>
+    <t>14 ч. 03 мин. 29 сек.</t>
   </si>
   <si>
     <t>Jerichoni</t>
   </si>
   <si>
-    <t>16 ч. 28 мин. 4 сек.</t>
+    <t>16 ч. 28 мин. 04 сек.</t>
   </si>
   <si>
     <t>черепаха_</t>
@@ -6221,7 +6221,7 @@
     <t>Yankovich</t>
   </si>
   <si>
-    <t>12 ч. 4 мин. 25 сек.</t>
+    <t>12 ч. 04 мин. 25 сек.</t>
   </si>
   <si>
     <t>mibig</t>
@@ -6263,7 +6263,7 @@
     <t>черепахаход</t>
   </si>
   <si>
-    <t>125 ч. 0 мин. 51 сек.</t>
+    <t>125 ч. 00 мин. 51 сек.</t>
   </si>
   <si>
     <t>920–924</t>
@@ -6296,7 +6296,7 @@
     <t>СераБелка</t>
   </si>
   <si>
-    <t>32 ч. 5 мин. 23 сек.</t>
+    <t>32 ч. 05 мин. 23 сек.</t>
   </si>
   <si>
     <t>925–934</t>
@@ -6305,7 +6305,7 @@
     <t>Salander</t>
   </si>
   <si>
-    <t>9 ч. 24 мин. 2 сек.</t>
+    <t>9 ч. 24 мин. 02 сек.</t>
   </si>
   <si>
     <t>Клаудиа</t>
@@ -6323,31 +6323,31 @@
     <t>Vampirenochek</t>
   </si>
   <si>
-    <t>13 ч. 4 мин. 9 сек.</t>
+    <t>13 ч. 04 мин. 09 сек.</t>
   </si>
   <si>
     <t>наждак</t>
   </si>
   <si>
-    <t>18 ч. 23 мин. 7 сек.</t>
+    <t>18 ч. 23 мин. 07 сек.</t>
   </si>
   <si>
     <t>MOYSHA</t>
   </si>
   <si>
-    <t>18 ч. 37 мин. 9 сек.</t>
+    <t>18 ч. 37 мин. 09 сек.</t>
   </si>
   <si>
     <t>ORV88</t>
   </si>
   <si>
-    <t>18 ч. 43 мин. 1 сек.</t>
+    <t>18 ч. 43 мин. 01 сек.</t>
   </si>
   <si>
     <t>Попугай_Кеша</t>
   </si>
   <si>
-    <t>24 ч. 2 мин. 18 сек.</t>
+    <t>24 ч. 02 мин. 18 сек.</t>
   </si>
   <si>
     <t>svshevchenkosv</t>
@@ -6359,7 +6359,7 @@
     <t>Leh</t>
   </si>
   <si>
-    <t>34 ч. 5 мин. 2 сек.</t>
+    <t>34 ч. 05 мин. 02 сек.</t>
   </si>
   <si>
     <t>935–940</t>
@@ -6398,7 +6398,7 @@
     <t>fedind</t>
   </si>
   <si>
-    <t>65 ч. 9 мин. 22 сек.</t>
+    <t>65 ч. 09 мин. 22 сек.</t>
   </si>
   <si>
     <t>941–943</t>
@@ -6419,7 +6419,7 @@
     <t>arhibaboon</t>
   </si>
   <si>
-    <t>25 ч. 54 мин. 1 сек.</t>
+    <t>25 ч. 54 мин. 01 сек.</t>
   </si>
   <si>
     <t>944–953</t>
@@ -6428,13 +6428,13 @@
     <t>lirpost</t>
   </si>
   <si>
-    <t>8 ч. 34 мин. 5 сек.</t>
+    <t>8 ч. 34 мин. 05 сек.</t>
   </si>
   <si>
     <t>Топтыгин</t>
   </si>
   <si>
-    <t>10 ч. 8 мин. 19 сек.</t>
+    <t>10 ч. 08 мин. 19 сек.</t>
   </si>
   <si>
     <t>Zoomskij</t>
@@ -6491,19 +6491,19 @@
     <t>vezderegit</t>
   </si>
   <si>
-    <t>11 ч. 58 мин. 5 сек.</t>
+    <t>11 ч. 58 мин. 05 сек.</t>
   </si>
   <si>
     <t>Ruslan86</t>
   </si>
   <si>
-    <t>12 ч. 9 мин. 49 сек.</t>
+    <t>12 ч. 09 мин. 49 сек.</t>
   </si>
   <si>
     <t>Кусь-Кусь</t>
   </si>
   <si>
-    <t>14 ч. 3 мин. 21 сек.</t>
+    <t>14 ч. 03 мин. 21 сек.</t>
   </si>
   <si>
     <t>sergycastle</t>
@@ -6530,13 +6530,13 @@
     <t>liga111</t>
   </si>
   <si>
-    <t>9 ч. 4 мин. 42 сек.</t>
+    <t>9 ч. 04 мин. 42 сек.</t>
   </si>
   <si>
     <t>Robust</t>
   </si>
   <si>
-    <t>10 ч. 29 мин. 5 сек.</t>
+    <t>10 ч. 29 мин. 05 сек.</t>
   </si>
   <si>
     <t>1bars1</t>
@@ -6578,7 +6578,7 @@
     <t>ВАТ</t>
   </si>
   <si>
-    <t>88 ч. 4 мин. 54 сек.</t>
+    <t>88 ч. 04 мин. 54 сек.</t>
   </si>
   <si>
     <t>969–976</t>
@@ -6605,7 +6605,7 @@
     <t>eksdak</t>
   </si>
   <si>
-    <t>16 ч. 24 мин. 8 сек.</t>
+    <t>16 ч. 24 мин. 08 сек.</t>
   </si>
   <si>
     <t>Furry_driver</t>
@@ -6644,7 +6644,7 @@
     <t>Дед_Мазай</t>
   </si>
   <si>
-    <t>16 ч. 39 мин. 5 сек.</t>
+    <t>16 ч. 39 мин. 05 сек.</t>
   </si>
   <si>
     <t>BadWolf1</t>
@@ -6695,7 +6695,7 @@
     <t>Deka_</t>
   </si>
   <si>
-    <t>22 ч. 8 мин. 49 сек.</t>
+    <t>22 ч. 08 мин. 49 сек.</t>
   </si>
   <si>
     <t>Дмитрий-С</t>
@@ -6746,7 +6746,7 @@
     <t>Hleb_1989</t>
   </si>
   <si>
-    <t>19 ч. 29 мин. 8 сек.</t>
+    <t>19 ч. 29 мин. 08 сек.</t>
   </si>
   <si>
     <t>Meliorius</t>
@@ -6758,19 +6758,19 @@
     <t>Yulick</t>
   </si>
   <si>
-    <t>22 ч. 9 мин. 36 сек.</t>
+    <t>22 ч. 09 мин. 36 сек.</t>
   </si>
   <si>
     <t>Sauvage</t>
   </si>
   <si>
-    <t>28 ч. 20 мин. 4 сек.</t>
+    <t>28 ч. 20 мин. 04 сек.</t>
   </si>
   <si>
     <t>wizmon</t>
   </si>
   <si>
-    <t>31 ч. 43 мин. 6 сек.</t>
+    <t>31 ч. 43 мин. 06 сек.</t>
   </si>
   <si>
     <t>999–1003</t>
@@ -6791,13 +6791,13 @@
     <t>kageneko</t>
   </si>
   <si>
-    <t>35 ч. 8 мин. 0 сек.</t>
+    <t>35 ч. 08 мин. 00 сек.</t>
   </si>
   <si>
     <t>nigmyar</t>
   </si>
   <si>
-    <t>47 ч. 1 мин. 27 сек.</t>
+    <t>47 ч. 01 мин. 27 сек.</t>
   </si>
   <si>
     <t>Большой_Дрю</t>
@@ -6833,13 +6833,13 @@
     <t>second</t>
   </si>
   <si>
-    <t>33 ч. 9 мин. 50 сек.</t>
+    <t>33 ч. 09 мин. 50 сек.</t>
   </si>
   <si>
     <t>daniyar5436</t>
   </si>
   <si>
-    <t>57 ч. 9 мин. 30 сек.</t>
+    <t>57 ч. 09 мин. 30 сек.</t>
   </si>
   <si>
     <t>1010–1017</t>
@@ -6920,7 +6920,7 @@
     <t>gmaffer</t>
   </si>
   <si>
-    <t>11 ч. 48 мин. 0 сек.</t>
+    <t>11 ч. 48 мин. 00 сек.</t>
   </si>
   <si>
     <t>AlekseySK</t>
@@ -6932,7 +6932,7 @@
     <t>Хеопс</t>
   </si>
   <si>
-    <t>15 ч. 14 мин. 3 сек.</t>
+    <t>15 ч. 14 мин. 03 сек.</t>
   </si>
   <si>
     <t>LightStorm</t>
@@ -6944,19 +6944,19 @@
     <t>Клавоген</t>
   </si>
   <si>
-    <t>20 ч. 9 мин. 18 сек.</t>
+    <t>20 ч. 09 мин. 18 сек.</t>
   </si>
   <si>
     <t>inmpower</t>
   </si>
   <si>
-    <t>22 ч. 15 мин. 2 сек.</t>
+    <t>22 ч. 15 мин. 02 сек.</t>
   </si>
   <si>
     <t>непотомуль</t>
   </si>
   <si>
-    <t>27 ч. 57 мин. 4 сек.</t>
+    <t>27 ч. 57 мин. 04 сек.</t>
   </si>
   <si>
     <t>L_A</t>
@@ -7007,7 +7007,7 @@
     <t>Пользователь</t>
   </si>
   <si>
-    <t>46 ч. 47 мин. 5 сек.</t>
+    <t>46 ч. 47 мин. 05 сек.</t>
   </si>
   <si>
     <t>Инт</t>
@@ -7079,7 +7079,7 @@
     <t>Aksinja</t>
   </si>
   <si>
-    <t>16 ч. 13 мин. 7 сек.</t>
+    <t>16 ч. 13 мин. 07 сек.</t>
   </si>
   <si>
     <t>Zephir</t>
@@ -7103,7 +7103,7 @@
     <t>anomura</t>
   </si>
   <si>
-    <t>61 ч. 3 мин. 52 сек.</t>
+    <t>61 ч. 03 мин. 52 сек.</t>
   </si>
   <si>
     <t>Mask2017</t>
@@ -7118,7 +7118,7 @@
     <t>RoRio</t>
   </si>
   <si>
-    <t>94 ч. 7 мин. 7 сек.</t>
+    <t>94 ч. 07 мин. 07 сек.</t>
   </si>
   <si>
     <t>Tatsi_3006</t>
@@ -7142,7 +7142,7 @@
     <t>gogolocman</t>
   </si>
   <si>
-    <t>20 ч. 3 мин. 49 сек.</t>
+    <t>20 ч. 03 мин. 49 сек.</t>
   </si>
   <si>
     <t>inobject</t>
@@ -7166,19 +7166,19 @@
     <t>endagorion</t>
   </si>
   <si>
-    <t>31 ч. 3 мин. 7 сек.</t>
+    <t>31 ч. 03 мин. 07 сек.</t>
   </si>
   <si>
     <t>Groghal</t>
   </si>
   <si>
-    <t>38 ч. 3 мин. 40 сек.</t>
+    <t>38 ч. 03 мин. 40 сек.</t>
   </si>
   <si>
     <t>humson</t>
   </si>
   <si>
-    <t>46 ч. 4 мин. 44 сек.</t>
+    <t>46 ч. 04 мин. 44 сек.</t>
   </si>
   <si>
     <t>1064–1070</t>
@@ -7187,7 +7187,7 @@
     <t>DataKrat</t>
   </si>
   <si>
-    <t>9 ч. 9 мин. 3 сек.</t>
+    <t>9 ч. 09 мин. 03 сек.</t>
   </si>
   <si>
     <t>easy_mouse</t>
@@ -7199,19 +7199,19 @@
     <t>Vorval_0</t>
   </si>
   <si>
-    <t>15 ч. 3 мин. 57 сек.</t>
+    <t>15 ч. 03 мин. 57 сек.</t>
   </si>
   <si>
     <t>Суоно</t>
   </si>
   <si>
-    <t>30 ч. 6 мин. 13 сек.</t>
+    <t>30 ч. 06 мин. 13 сек.</t>
   </si>
   <si>
     <t>Azrae11e</t>
   </si>
   <si>
-    <t>33 ч. 47 мин. 8 сек.</t>
+    <t>33 ч. 47 мин. 08 сек.</t>
   </si>
   <si>
     <t>Яня</t>
@@ -7223,7 +7223,7 @@
     <t>4681</t>
   </si>
   <si>
-    <t>67 ч. 9 мин. 6 сек.</t>
+    <t>67 ч. 09 мин. 06 сек.</t>
   </si>
   <si>
     <t>1071–1079</t>
@@ -7238,7 +7238,7 @@
     <t>paintedhat</t>
   </si>
   <si>
-    <t>18 ч. 3 мин. 27 сек.</t>
+    <t>18 ч. 03 мин. 27 сек.</t>
   </si>
   <si>
     <t>nukalka</t>
@@ -7274,7 +7274,7 @@
     <t>ОлегК</t>
   </si>
   <si>
-    <t>51 ч. 7 мин. 9 сек.</t>
+    <t>51 ч. 07 мин. 09 сек.</t>
   </si>
   <si>
     <t>strekozza</t>
@@ -7307,7 +7307,7 @@
     <t>name_snrl</t>
   </si>
   <si>
-    <t>26 ч. 48 мин. 8 сек.</t>
+    <t>26 ч. 48 мин. 08 сек.</t>
   </si>
   <si>
     <t>lislkap</t>
@@ -7358,7 +7358,7 @@
     <t>Racnagore</t>
   </si>
   <si>
-    <t>14 ч. 59 мин. 6 сек.</t>
+    <t>14 ч. 59 мин. 06 сек.</t>
   </si>
   <si>
     <t>ВитекД</t>
@@ -7403,7 +7403,7 @@
     <t>artemD</t>
   </si>
   <si>
-    <t>9 ч. 1 мин. 27 сек.</t>
+    <t>9 ч. 01 мин. 27 сек.</t>
   </si>
   <si>
     <t>yoyu</t>
@@ -7421,7 +7421,7 @@
     <t>Tolstij</t>
   </si>
   <si>
-    <t>26 ч. 45 мин. 6 сек.</t>
+    <t>26 ч. 45 мин. 06 сек.</t>
   </si>
   <si>
     <t>str_nik</t>
@@ -7433,7 +7433,7 @@
     <t>ALEKS-POWER</t>
   </si>
   <si>
-    <t>38 ч. 16 мин. 5 сек.</t>
+    <t>38 ч. 16 мин. 05 сек.</t>
   </si>
   <si>
     <t>1104–1112</t>
@@ -7457,7 +7457,7 @@
     <t>momantenok_vova</t>
   </si>
   <si>
-    <t>15 ч. 14 мин. 8 сек.</t>
+    <t>15 ч. 14 мин. 08 сек.</t>
   </si>
   <si>
     <t>yoorick</t>
@@ -7502,7 +7502,7 @@
     <t>noob_typist</t>
   </si>
   <si>
-    <t>11 ч. 14 мин. 0 сек.</t>
+    <t>11 ч. 14 мин. 00 сек.</t>
   </si>
   <si>
     <t>egor_zakon</t>
@@ -7532,13 +7532,13 @@
     <t>kasiveyser</t>
   </si>
   <si>
-    <t>23 ч. 38 мин. 4 сек.</t>
+    <t>23 ч. 38 мин. 04 сек.</t>
   </si>
   <si>
     <t>plin2s</t>
   </si>
   <si>
-    <t>26 ч. 6 мин. 48 сек.</t>
+    <t>26 ч. 06 мин. 48 сек.</t>
   </si>
   <si>
     <t>hangling</t>
@@ -7577,7 +7577,7 @@
     <t>atikin88</t>
   </si>
   <si>
-    <t>20 ч. 28 мин. 6 сек.</t>
+    <t>20 ч. 28 мин. 06 сек.</t>
   </si>
   <si>
     <t>vogon_</t>
@@ -7595,7 +7595,7 @@
     <t>tarak</t>
   </si>
   <si>
-    <t>49 ч. 2 мин. 9 сек.</t>
+    <t>49 ч. 02 мин. 09 сек.</t>
   </si>
   <si>
     <t>1130–1141</t>
@@ -7604,19 +7604,19 @@
     <t>SirenScream</t>
   </si>
   <si>
-    <t>8 ч. 34 мин. 1 сек.</t>
+    <t>8 ч. 34 мин. 01 сек.</t>
   </si>
   <si>
     <t>Mountain_monk</t>
   </si>
   <si>
-    <t>9 ч. 9 мин. 20 сек.</t>
+    <t>9 ч. 09 мин. 20 сек.</t>
   </si>
   <si>
     <t>Felikc</t>
   </si>
   <si>
-    <t>10 ч. 8 мин. 15 сек.</t>
+    <t>10 ч. 08 мин. 15 сек.</t>
   </si>
   <si>
     <t>Gbit</t>
@@ -7625,7 +7625,7 @@
     <t>Desertove</t>
   </si>
   <si>
-    <t>15 ч. 14 мин. 5 сек.</t>
+    <t>15 ч. 14 мин. 05 сек.</t>
   </si>
   <si>
     <t>Zheka169</t>
@@ -7661,7 +7661,7 @@
     <t>exploration</t>
   </si>
   <si>
-    <t>33 ч. 3 мин. 45 сек.</t>
+    <t>33 ч. 03 мин. 45 сек.</t>
   </si>
   <si>
     <t>zyzi</t>
@@ -7676,7 +7676,7 @@
     <t>jimmy53</t>
   </si>
   <si>
-    <t>9 ч. 41 мин. 5 сек.</t>
+    <t>9 ч. 41 мин. 05 сек.</t>
   </si>
   <si>
     <t>Tuva</t>
@@ -7715,7 +7715,7 @@
     <t>jooga</t>
   </si>
   <si>
-    <t>13 ч. 19 мин. 8 сек.</t>
+    <t>13 ч. 19 мин. 08 сек.</t>
   </si>
   <si>
     <t>Cherry</t>
@@ -7736,25 +7736,25 @@
     <t>ильу</t>
   </si>
   <si>
-    <t>11 ч. 9 мин. 18 сек.</t>
+    <t>11 ч. 09 мин. 18 сек.</t>
   </si>
   <si>
     <t>Живой</t>
   </si>
   <si>
-    <t>12 ч. 24 мин. 7 сек.</t>
+    <t>12 ч. 24 мин. 07 сек.</t>
   </si>
   <si>
     <t>Кунанов</t>
   </si>
   <si>
-    <t>13 ч. 4 мин. 4 сек.</t>
+    <t>13 ч. 04 мин. 04 сек.</t>
   </si>
   <si>
     <t>LexusAmd</t>
   </si>
   <si>
-    <t>18 ч. 34 мин. 8 сек.</t>
+    <t>18 ч. 34 мин. 08 сек.</t>
   </si>
   <si>
     <t>Шадрин</t>
@@ -7766,13 +7766,13 @@
     <t>Тоха</t>
   </si>
   <si>
-    <t>21 ч. 29 мин. 9 сек.</t>
+    <t>21 ч. 29 мин. 09 сек.</t>
   </si>
   <si>
     <t>Kagaa</t>
   </si>
   <si>
-    <t>23 ч. 35 мин. 8 сек.</t>
+    <t>23 ч. 35 мин. 08 сек.</t>
   </si>
   <si>
     <t>бульварылжи</t>
@@ -7790,7 +7790,7 @@
     <t>123text_ru</t>
   </si>
   <si>
-    <t>61 ч. 37 мин. 3 сек.</t>
+    <t>61 ч. 37 мин. 03 сек.</t>
   </si>
   <si>
     <t>tinto</t>
@@ -7811,7 +7811,7 @@
     <t>Shinobig</t>
   </si>
   <si>
-    <t>211 ч. 5 мин. 59 сек.</t>
+    <t>211 ч. 05 мин. 59 сек.</t>
   </si>
   <si>
     <t>скрыт</t>
@@ -7841,7 +7841,7 @@
     <t>sheeva_v01337</t>
   </si>
   <si>
-    <t>10 ч. 9 мин. 1 сек.</t>
+    <t>10 ч. 09 мин. 01 сек.</t>
   </si>
   <si>
     <t>Denis120</t>
@@ -7853,13 +7853,13 @@
     <t>ElenaF</t>
   </si>
   <si>
-    <t>16 ч. 8 мин. 40 сек.</t>
+    <t>16 ч. 08 мин. 40 сек.</t>
   </si>
   <si>
     <t>Roodyaman</t>
   </si>
   <si>
-    <t>19 ч. 3 мин. 29 сек.</t>
+    <t>19 ч. 03 мин. 29 сек.</t>
   </si>
   <si>
     <t>gazda2009</t>
@@ -7871,13 +7871,13 @@
     <t>teacherIgor</t>
   </si>
   <si>
-    <t>30 ч. 31 мин. 0 сек.</t>
+    <t>30 ч. 31 мин. 00 сек.</t>
   </si>
   <si>
     <t>diskorkl</t>
   </si>
   <si>
-    <t>34 ч. 7 мин. 21 сек.</t>
+    <t>34 ч. 07 мин. 21 сек.</t>
   </si>
   <si>
     <t>Елена22В</t>
@@ -7907,13 +7907,13 @@
     <t>algorithm</t>
   </si>
   <si>
-    <t>10 ч. 3 мин. 58 сек.</t>
+    <t>10 ч. 03 мин. 58 сек.</t>
   </si>
   <si>
     <t>p-kuznetsov</t>
   </si>
   <si>
-    <t>12 ч. 9 мин. 12 сек.</t>
+    <t>12 ч. 09 мин. 12 сек.</t>
   </si>
   <si>
     <t>unname</t>
@@ -7931,13 +7931,13 @@
     <t>emercomisha</t>
   </si>
   <si>
-    <t>29 ч. 8 мин. 23 сек.</t>
+    <t>29 ч. 08 мин. 23 сек.</t>
   </si>
   <si>
     <t>Darwinian</t>
   </si>
   <si>
-    <t>31 ч. 22 мин. 8 сек.</t>
+    <t>31 ч. 22 мин. 08 сек.</t>
   </si>
   <si>
     <t>1185–1192</t>
@@ -7958,7 +7958,7 @@
     <t>Viktor117</t>
   </si>
   <si>
-    <t>15 ч. 44 мин. 6 сек.</t>
+    <t>15 ч. 44 мин. 06 сек.</t>
   </si>
   <si>
     <t>lusisha</t>
@@ -7976,7 +7976,7 @@
     <t>Pyccku</t>
   </si>
   <si>
-    <t>18 ч. 2 мин. 34 сек.</t>
+    <t>18 ч. 02 мин. 34 сек.</t>
   </si>
   <si>
     <t>uav</t>
@@ -7997,13 +7997,13 @@
     <t>Eleilas</t>
   </si>
   <si>
-    <t>8 ч. 34 мин. 9 сек.</t>
+    <t>8 ч. 34 мин. 09 сек.</t>
   </si>
   <si>
     <t>HeX0</t>
   </si>
   <si>
-    <t>10 ч. 14 мин. 4 сек.</t>
+    <t>10 ч. 14 мин. 04 сек.</t>
   </si>
   <si>
     <t>РжавыйФонарь</t>
@@ -8021,25 +8021,25 @@
     <t>ПоганаяМолодежь</t>
   </si>
   <si>
-    <t>23 ч. 1 мин. 21 сек.</t>
+    <t>23 ч. 01 мин. 21 сек.</t>
   </si>
   <si>
     <t>raschoska</t>
   </si>
   <si>
-    <t>23 ч. 26 мин. 7 сек.</t>
+    <t>23 ч. 26 мин. 07 сек.</t>
   </si>
   <si>
     <t>Клаус</t>
   </si>
   <si>
-    <t>26 ч. 46 мин. 2 сек.</t>
+    <t>26 ч. 46 мин. 02 сек.</t>
   </si>
   <si>
     <t>Vi2GaN</t>
   </si>
   <si>
-    <t>28 ч. 5 мин. 58 сек.</t>
+    <t>28 ч. 05 мин. 58 сек.</t>
   </si>
   <si>
     <t>vovetRU</t>
@@ -8060,19 +8060,19 @@
     <t>Ankx</t>
   </si>
   <si>
-    <t>13 ч. 9 мин. 31 сек.</t>
+    <t>13 ч. 09 мин. 31 сек.</t>
   </si>
   <si>
     <t>nitop</t>
   </si>
   <si>
-    <t>14 ч. 9 мин. 7 сек.</t>
+    <t>14 ч. 09 мин. 07 сек.</t>
   </si>
   <si>
     <t>terlan</t>
   </si>
   <si>
-    <t>17 ч. 28 мин. 4 сек.</t>
+    <t>17 ч. 28 мин. 04 сек.</t>
   </si>
   <si>
     <t>Еретик</t>
@@ -8102,7 +8102,7 @@
     <t>Бурик</t>
   </si>
   <si>
-    <t>26 ч. 32 мин. 1 сек.</t>
+    <t>26 ч. 32 мин. 01 сек.</t>
   </si>
   <si>
     <t>ShdwWrrr</t>
@@ -8174,13 +8174,13 @@
     <t>Readeer</t>
   </si>
   <si>
-    <t>13 ч. 4 мин. 20 сек.</t>
+    <t>13 ч. 04 мин. 20 сек.</t>
   </si>
   <si>
     <t>homo-novus</t>
   </si>
   <si>
-    <t>16 ч. 23 мин. 3 сек.</t>
+    <t>16 ч. 23 мин. 03 сек.</t>
   </si>
   <si>
     <t>Olmit</t>
@@ -8204,7 +8204,7 @@
     <t>I-and-I</t>
   </si>
   <si>
-    <t>26 ч. 9 мин. 9 сек.</t>
+    <t>26 ч. 09 мин. 09 сек.</t>
   </si>
   <si>
     <t>KeyboardCow-boy</t>
@@ -8249,7 +8249,7 @@
     <t>R-o-m-i-k</t>
   </si>
   <si>
-    <t>18 ч. 38 мин. 1 сек.</t>
+    <t>18 ч. 38 мин. 01 сек.</t>
   </si>
   <si>
     <t>DoYourJob</t>
@@ -8279,13 +8279,13 @@
     <t>uri11</t>
   </si>
   <si>
-    <t>52 ч. 1 мин. 51 сек.</t>
+    <t>52 ч. 01 мин. 51 сек.</t>
   </si>
   <si>
     <t>Gridnout</t>
   </si>
   <si>
-    <t>67 ч. 53 мин. 0 сек.</t>
+    <t>67 ч. 53 мин. 00 сек.</t>
   </si>
   <si>
     <t>1240–1246</t>
@@ -8318,13 +8318,13 @@
     <t>corey_haim</t>
   </si>
   <si>
-    <t>23 ч. 37 мин. 7 сек.</t>
+    <t>23 ч. 37 мин. 07 сек.</t>
   </si>
   <si>
     <t>Пофантазируем7</t>
   </si>
   <si>
-    <t>34 ч. 6 мин. 15 сек.</t>
+    <t>34 ч. 06 мин. 15 сек.</t>
   </si>
   <si>
     <t>Алека</t>
@@ -8366,7 +8366,7 @@
     <t>flebushe</t>
   </si>
   <si>
-    <t>25 ч. 3 мин. 44 сек.</t>
+    <t>25 ч. 03 мин. 44 сек.</t>
   </si>
   <si>
     <t>1253–1262</t>
@@ -8417,7 +8417,7 @@
     <t>FunkyBoy</t>
   </si>
   <si>
-    <t>28 ч. 43 мин. 2 сек.</t>
+    <t>28 ч. 43 мин. 02 сек.</t>
   </si>
   <si>
     <t>jcdenton</t>
@@ -8450,7 +8450,7 @@
     <t>клавоинка</t>
   </si>
   <si>
-    <t>11 ч. 9 мин. 48 сек.</t>
+    <t>11 ч. 09 мин. 48 сек.</t>
   </si>
   <si>
     <t>STIGmat216</t>
@@ -8468,13 +8468,13 @@
     <t>ZompSnail</t>
   </si>
   <si>
-    <t>23 ч. 8 мин. 44 сек.</t>
+    <t>23 ч. 08 мин. 44 сек.</t>
   </si>
   <si>
     <t>dmitriy156</t>
   </si>
   <si>
-    <t>92 ч. 9 мин. 55 сек.</t>
+    <t>92 ч. 09 мин. 55 сек.</t>
   </si>
   <si>
     <t>kennek</t>
@@ -8501,7 +8501,7 @@
     <t>citello</t>
   </si>
   <si>
-    <t>14 ч. 19 мин. 6 сек.</t>
+    <t>14 ч. 19 мин. 06 сек.</t>
   </si>
   <si>
     <t>Дибров</t>
@@ -8564,7 +8564,7 @@
     <t>68Liss</t>
   </si>
   <si>
-    <t>24 ч. 43 мин. 6 сек.</t>
+    <t>24 ч. 43 мин. 06 сек.</t>
   </si>
   <si>
     <t>ArrowMiara</t>
@@ -8576,13 +8576,13 @@
     <t>Kemp</t>
   </si>
   <si>
-    <t>27 ч. 1 мин. 47 сек.</t>
+    <t>27 ч. 01 мин. 47 сек.</t>
   </si>
   <si>
     <t>Sandi</t>
   </si>
   <si>
-    <t>34 ч. 3 мин. 18 сек.</t>
+    <t>34 ч. 03 мин. 18 сек.</t>
   </si>
   <si>
     <t>daktule</t>
@@ -8615,13 +8615,13 @@
     <t>Banzai7</t>
   </si>
   <si>
-    <t>13 ч. 4 мин. 35 сек.</t>
+    <t>13 ч. 04 мин. 35 сек.</t>
   </si>
   <si>
     <t>evgen65</t>
   </si>
   <si>
-    <t>16 ч. 8 мин. 41 сек.</t>
+    <t>16 ч. 08 мин. 41 сек.</t>
   </si>
   <si>
     <t>akuna1</t>
@@ -8639,7 +8639,7 @@
     <t>Kanzi</t>
   </si>
   <si>
-    <t>25 ч. 3 мин. 24 сек.</t>
+    <t>25 ч. 03 мин. 24 сек.</t>
   </si>
   <si>
     <t>Kult42</t>
@@ -8660,13 +8660,13 @@
     <t>kchota</t>
   </si>
   <si>
-    <t>9 ч. 4 мин. 27 сек.</t>
+    <t>9 ч. 04 мин. 27 сек.</t>
   </si>
   <si>
     <t>frailleg</t>
   </si>
   <si>
-    <t>10 ч. 4 мин. 8 сек.</t>
+    <t>10 ч. 04 мин. 08 сек.</t>
   </si>
   <si>
     <t>Juvman</t>
@@ -8678,13 +8678,13 @@
     <t>Mbl</t>
   </si>
   <si>
-    <t>12 ч. 9 мин. 41 сек.</t>
+    <t>12 ч. 09 мин. 41 сек.</t>
   </si>
   <si>
     <t>alexrus79</t>
   </si>
   <si>
-    <t>27 ч. 2 мин. 41 сек.</t>
+    <t>27 ч. 02 мин. 41 сек.</t>
   </si>
   <si>
     <t>Плюньдель</t>
@@ -8705,13 +8705,13 @@
     <t>ikim_online</t>
   </si>
   <si>
-    <t>83 ч. 16 мин. 0 сек.</t>
+    <t>83 ч. 16 мин. 00 сек.</t>
   </si>
   <si>
     <t>natalishka</t>
   </si>
   <si>
-    <t>807 ч. 54 мин. 3 сек.</t>
+    <t>807 ч. 54 мин. 03 сек.</t>
   </si>
   <si>
     <t>VylSkloi</t>
@@ -8729,25 +8729,25 @@
     <t>DM-x</t>
   </si>
   <si>
-    <t>9 ч. 4 мин. 3 сек.</t>
+    <t>9 ч. 04 мин. 03 сек.</t>
   </si>
   <si>
     <t>кешаня</t>
   </si>
   <si>
-    <t>9 ч. 8 мин. 45 сек.</t>
+    <t>9 ч. 08 мин. 45 сек.</t>
   </si>
   <si>
     <t>Jamakasi</t>
   </si>
   <si>
-    <t>13 ч. 4 мин. 15 сек.</t>
+    <t>13 ч. 04 мин. 15 сек.</t>
   </si>
   <si>
     <t>Интересующийся</t>
   </si>
   <si>
-    <t>16 ч. 33 мин. 0 сек.</t>
+    <t>16 ч. 33 мин. 00 сек.</t>
   </si>
   <si>
     <t>E_l_e_n_a</t>
@@ -8816,13 +8816,13 @@
     <t>Yogi</t>
   </si>
   <si>
-    <t>24 ч. 5 мин. 44 сек.</t>
+    <t>24 ч. 05 мин. 44 сек.</t>
   </si>
   <si>
     <t>leer</t>
   </si>
   <si>
-    <t>26 ч. 2 мин. 6 сек.</t>
+    <t>26 ч. 02 мин. 06 сек.</t>
   </si>
   <si>
     <t>1325–1335</t>
@@ -8837,7 +8837,7 @@
     <t>Минералка</t>
   </si>
   <si>
-    <t>10 ч. 4 мин. 2 сек.</t>
+    <t>10 ч. 04 мин. 02 сек.</t>
   </si>
   <si>
     <t>Козак</t>
@@ -8861,7 +8861,7 @@
     <t>lucky-zaa</t>
   </si>
   <si>
-    <t>15 ч. 38 мин. 9 сек.</t>
+    <t>15 ч. 38 мин. 09 сек.</t>
   </si>
   <si>
     <t>Ladynec</t>
@@ -8885,13 +8885,13 @@
     <t>shibormot</t>
   </si>
   <si>
-    <t>112 ч. 35 мин. 9 сек.</t>
+    <t>112 ч. 35 мин. 09 сек.</t>
   </si>
   <si>
     <t>altavista_live</t>
   </si>
   <si>
-    <t>121 ч. 19 мин. 8 сек.</t>
+    <t>121 ч. 19 мин. 08 сек.</t>
   </si>
   <si>
     <t>1336–1350</t>
@@ -8912,7 +8912,7 @@
     <t>Adinochka</t>
   </si>
   <si>
-    <t>9 ч. 7 мин. 53 сек.</t>
+    <t>9 ч. 07 мин. 53 сек.</t>
   </si>
   <si>
     <t>Пашуня</t>
@@ -8927,19 +8927,19 @@
     <t>chesbor</t>
   </si>
   <si>
-    <t>13 ч. 14 мин. 7 сек.</t>
+    <t>13 ч. 14 мин. 07 сек.</t>
   </si>
   <si>
     <t>EvrikaCharodika</t>
   </si>
   <si>
-    <t>14 ч. 7 мин. 37 сек.</t>
+    <t>14 ч. 07 мин. 37 сек.</t>
   </si>
   <si>
     <t>Герман2882</t>
   </si>
   <si>
-    <t>15 ч. 49 мин. 8 сек.</t>
+    <t>15 ч. 49 мин. 08 сек.</t>
   </si>
   <si>
     <t>NoskovaSophia</t>
@@ -8963,7 +8963,7 @@
     <t>SGP63</t>
   </si>
   <si>
-    <t>21 ч. 2 мин. 49 сек.</t>
+    <t>21 ч. 02 мин. 49 сек.</t>
   </si>
   <si>
     <t>Скрежет</t>
@@ -8981,7 +8981,7 @@
     <t>Artesik</t>
   </si>
   <si>
-    <t>32 ч. 39 мин. 7 сек.</t>
+    <t>32 ч. 39 мин. 07 сек.</t>
   </si>
   <si>
     <t>1351–1365</t>
@@ -9008,7 +9008,7 @@
     <t>Жижикова</t>
   </si>
   <si>
-    <t>12 ч. 59 мин. 4 сек.</t>
+    <t>12 ч. 59 мин. 04 сек.</t>
   </si>
   <si>
     <t>grenuar_</t>
@@ -9050,7 +9050,7 @@
     <t>ЕвгенияСеверная</t>
   </si>
   <si>
-    <t>30 ч. 11 мин. 1 сек.</t>
+    <t>30 ч. 11 мин. 01 сек.</t>
   </si>
   <si>
     <t>Resta</t>
@@ -9062,7 +9062,7 @@
     <t>tatava</t>
   </si>
   <si>
-    <t>47 ч. 17 мин. 9 сек.</t>
+    <t>47 ч. 17 мин. 09 сек.</t>
   </si>
   <si>
     <t>44444</t>
@@ -9083,7 +9083,7 @@
     <t>nezapivayu</t>
   </si>
   <si>
-    <t>340 ч. 6 мин. 56 сек.</t>
+    <t>340 ч. 06 мин. 56 сек.</t>
   </si>
   <si>
     <t>Красотулька</t>
@@ -9119,7 +9119,7 @@
     <t>vvibm</t>
   </si>
   <si>
-    <t>25 ч. 28 мин. 3 сек.</t>
+    <t>25 ч. 28 мин. 03 сек.</t>
   </si>
   <si>
     <t>anideni</t>
@@ -9131,7 +9131,7 @@
     <t>Olfy</t>
   </si>
   <si>
-    <t>29 ч. 6 мин. 51 сек.</t>
+    <t>29 ч. 06 мин. 51 сек.</t>
   </si>
   <si>
     <t>telephone</t>
@@ -9161,7 +9161,7 @@
     <t>GAS_BURF</t>
   </si>
   <si>
-    <t>9 ч. 44 мин. 8 сек.</t>
+    <t>9 ч. 44 мин. 08 сек.</t>
   </si>
   <si>
     <t>vitaha</t>
@@ -9185,7 +9185,7 @@
     <t>Xupypr_y</t>
   </si>
   <si>
-    <t>15 ч. 4 мин. 5 сек.</t>
+    <t>15 ч. 04 мин. 05 сек.</t>
   </si>
   <si>
     <t>Sky-net</t>
@@ -9209,7 +9209,7 @@
     <t>Grumbler69</t>
   </si>
   <si>
-    <t>73 ч. 1 мин. 10 сек.</t>
+    <t>73 ч. 01 мин. 10 сек.</t>
   </si>
   <si>
     <t>1388–1396</t>
@@ -9218,19 +9218,19 @@
     <t>Bezumnyj_pioner</t>
   </si>
   <si>
-    <t>8 ч. 24 мин. 2 сек.</t>
+    <t>8 ч. 24 мин. 02 сек.</t>
   </si>
   <si>
     <t>Людмила83</t>
   </si>
   <si>
-    <t>9 ч. 44 мин. 9 сек.</t>
+    <t>9 ч. 44 мин. 09 сек.</t>
   </si>
   <si>
     <t>MrDenro</t>
   </si>
   <si>
-    <t>11 ч. 14 мин. 5 сек.</t>
+    <t>11 ч. 14 мин. 05 сек.</t>
   </si>
   <si>
     <t>Матизик</t>
@@ -9242,13 +9242,13 @@
     <t>nata123777</t>
   </si>
   <si>
-    <t>11 ч. 34 мин. 1 сек.</t>
+    <t>11 ч. 34 мин. 01 сек.</t>
   </si>
   <si>
     <t>tihohod</t>
   </si>
   <si>
-    <t>15 ч. 3 мин. 15 сек.</t>
+    <t>15 ч. 03 мин. 15 сек.</t>
   </si>
   <si>
     <t>Alexeibest1</t>
@@ -9275,7 +9275,7 @@
     <t>jkovalenko</t>
   </si>
   <si>
-    <t>8 ч. 50 мин. 5 сек.</t>
+    <t>8 ч. 50 мин. 05 сек.</t>
   </si>
   <si>
     <t>Alston</t>
@@ -9341,7 +9341,7 @@
     <t>Nsx</t>
   </si>
   <si>
-    <t>18 ч. 3 мин. 51 сек.</t>
+    <t>18 ч. 03 мин. 51 сек.</t>
   </si>
   <si>
     <t>1409–1414</t>
@@ -9362,19 +9362,19 @@
     <t>Gosick</t>
   </si>
   <si>
-    <t>11 ч. 2 мин. 37 сек.</t>
+    <t>11 ч. 02 мин. 37 сек.</t>
   </si>
   <si>
     <t>ArtefactX</t>
   </si>
   <si>
-    <t>17 ч. 19 мин. 4 сек.</t>
+    <t>17 ч. 19 мин. 04 сек.</t>
   </si>
   <si>
     <t>yogurtishe</t>
   </si>
   <si>
-    <t>21 ч. 3 мин. 4 сек.</t>
+    <t>21 ч. 03 мин. 04 сек.</t>
   </si>
   <si>
     <t>NaCl</t>
@@ -9395,7 +9395,7 @@
     <t>CoK</t>
   </si>
   <si>
-    <t>8 ч. 49 мин. 9 сек.</t>
+    <t>8 ч. 49 мин. 09 сек.</t>
   </si>
   <si>
     <t>Sius</t>
@@ -9407,7 +9407,7 @@
     <t>Село</t>
   </si>
   <si>
-    <t>11 ч. 8 мин. 52 сек.</t>
+    <t>11 ч. 08 мин. 52 сек.</t>
   </si>
   <si>
     <t>VQV</t>
@@ -9431,7 +9431,7 @@
     <t>Alber</t>
   </si>
   <si>
-    <t>14 ч. 19 мин. 5 сек.</t>
+    <t>14 ч. 19 мин. 05 сек.</t>
   </si>
   <si>
     <t>Grizzly284</t>
@@ -9476,7 +9476,7 @@
     <t>Klavius</t>
   </si>
   <si>
-    <t>11 ч. 24 мин. 9 сек.</t>
+    <t>11 ч. 24 мин. 09 сек.</t>
   </si>
   <si>
     <t>fdsken</t>
@@ -9506,7 +9506,7 @@
     <t>kimisfan</t>
   </si>
   <si>
-    <t>26 ч. 24 мин. 8 сек.</t>
+    <t>26 ч. 24 мин. 08 сек.</t>
   </si>
   <si>
     <t>kirson45</t>
@@ -9518,7 +9518,7 @@
     <t>Fuuruub</t>
   </si>
   <si>
-    <t>45 ч. 7 мин. 51 сек.</t>
+    <t>45 ч. 07 мин. 51 сек.</t>
   </si>
   <si>
     <t>1437–1451</t>
@@ -9551,7 +9551,7 @@
     <t>Andriuxa</t>
   </si>
   <si>
-    <t>11 ч. 19 мин. 8 сек.</t>
+    <t>11 ч. 19 мин. 08 сек.</t>
   </si>
   <si>
     <t>insspb</t>
@@ -9560,7 +9560,7 @@
     <t>klaas459</t>
   </si>
   <si>
-    <t>11 ч. 59 мин. 2 сек.</t>
+    <t>11 ч. 59 мин. 02 сек.</t>
   </si>
   <si>
     <t>sshcharom</t>
@@ -9578,13 +9578,13 @@
     <t>archi77</t>
   </si>
   <si>
-    <t>18 ч. 32 мин. 3 сек.</t>
+    <t>18 ч. 32 мин. 03 сек.</t>
   </si>
   <si>
     <t>Чумаходка</t>
   </si>
   <si>
-    <t>27 ч. 48 мин. 4 сек.</t>
+    <t>27 ч. 48 мин. 04 сек.</t>
   </si>
   <si>
     <t>Crazy-D</t>
@@ -9596,7 +9596,7 @@
     <t>anonym412</t>
   </si>
   <si>
-    <t>37 ч. 3 мин. 14 сек.</t>
+    <t>37 ч. 03 мин. 14 сек.</t>
   </si>
   <si>
     <t>undoundo</t>
@@ -9626,7 +9626,7 @@
     <t>Odyssey</t>
   </si>
   <si>
-    <t>9 ч. 8 мин. 55 сек.</t>
+    <t>9 ч. 08 мин. 55 сек.</t>
   </si>
   <si>
     <t>Сима44</t>
@@ -9656,25 +9656,25 @@
     <t>Herbert</t>
   </si>
   <si>
-    <t>8 ч. 19 мин. 6 сек.</t>
+    <t>8 ч. 19 мин. 06 сек.</t>
   </si>
   <si>
     <t>dzheo_liliya</t>
   </si>
   <si>
-    <t>9 ч. 4 мин. 23 сек.</t>
+    <t>9 ч. 04 мин. 23 сек.</t>
   </si>
   <si>
     <t>mopar</t>
   </si>
   <si>
-    <t>9 ч. 3 мин. 22 сек.</t>
+    <t>9 ч. 03 мин. 22 сек.</t>
   </si>
   <si>
     <t>MickeyNN</t>
   </si>
   <si>
-    <t>10 ч. 4 мин. 13 сек.</t>
+    <t>10 ч. 04 мин. 13 сек.</t>
   </si>
   <si>
     <t>Deep87</t>
@@ -9710,7 +9710,7 @@
     <t>Соболев</t>
   </si>
   <si>
-    <t>14 ч. 54 мин. 2 сек.</t>
+    <t>14 ч. 54 мин. 02 сек.</t>
   </si>
   <si>
     <t>mishaberezin</t>
@@ -9779,7 +9779,7 @@
     <t>Рон</t>
   </si>
   <si>
-    <t>18 ч. 23 мин. 6 сек.</t>
+    <t>18 ч. 23 мин. 06 сек.</t>
   </si>
   <si>
     <t>bonusx</t>
@@ -9812,7 +9812,7 @@
     <t>splogin</t>
   </si>
   <si>
-    <t>9 ч. 14 мин. 8 сек.</t>
+    <t>9 ч. 14 мин. 08 сек.</t>
   </si>
   <si>
     <t>civinezium</t>
@@ -9824,13 +9824,13 @@
     <t>quay</t>
   </si>
   <si>
-    <t>12 ч. 4 мин. 14 сек.</t>
+    <t>12 ч. 04 мин. 14 сек.</t>
   </si>
   <si>
     <t>vvvv5</t>
   </si>
   <si>
-    <t>18 ч. 8 мин. 2 сек.</t>
+    <t>18 ч. 08 мин. 02 сек.</t>
   </si>
   <si>
     <t>Castolo</t>
@@ -9848,7 +9848,7 @@
     <t>Ska3o4nik</t>
   </si>
   <si>
-    <t>11 ч. 3 мин. 56 сек.</t>
+    <t>11 ч. 03 мин. 56 сек.</t>
   </si>
   <si>
     <t>usernm</t>
@@ -9890,13 +9890,13 @@
     <t>-ivinnic-</t>
   </si>
   <si>
-    <t>11 ч. 3 мин. 38 сек.</t>
+    <t>11 ч. 03 мин. 38 сек.</t>
   </si>
   <si>
     <t>Minelay</t>
   </si>
   <si>
-    <t>12 ч. 3 мин. 7 сек.</t>
+    <t>12 ч. 03 мин. 07 сек.</t>
   </si>
   <si>
     <t>darkBarakuda</t>
@@ -9920,13 +9920,13 @@
     <t>Варюха</t>
   </si>
   <si>
-    <t>14 ч. 53 мин. 9 сек.</t>
+    <t>14 ч. 53 мин. 09 сек.</t>
   </si>
   <si>
     <t>локки</t>
   </si>
   <si>
-    <t>15 ч. 29 мин. 5 сек.</t>
+    <t>15 ч. 29 мин. 05 сек.</t>
   </si>
   <si>
     <t>1504–1510</t>
@@ -9935,7 +9935,7 @@
     <t>luizakarimova</t>
   </si>
   <si>
-    <t>9 ч. 9 мин. 25 сек.</t>
+    <t>9 ч. 09 мин. 25 сек.</t>
   </si>
   <si>
     <t>Slenderman</t>
@@ -10013,7 +10013,7 @@
     <t>hazewalker</t>
   </si>
   <si>
-    <t>12 ч. 4 мин. 12 сек.</t>
+    <t>12 ч. 04 мин. 12 сек.</t>
   </si>
   <si>
     <t>АААлексей</t>
@@ -10037,13 +10037,13 @@
     <t>r0undabout</t>
   </si>
   <si>
-    <t>19 ч. 37 мин. 9 сек.</t>
+    <t>19 ч. 37 мин. 09 сек.</t>
   </si>
   <si>
     <t>eka42003</t>
   </si>
   <si>
-    <t>26 ч. 8 мин. 10 сек.</t>
+    <t>26 ч. 08 мин. 10 сек.</t>
   </si>
   <si>
     <t>Моя_Васька</t>
@@ -10070,7 +10070,7 @@
     <t>DaschaD</t>
   </si>
   <si>
-    <t>13 ч. 8 мин. 39 сек.</t>
+    <t>13 ч. 08 мин. 39 сек.</t>
   </si>
   <si>
     <t>ВасяЦарь</t>
@@ -10103,7 +10103,7 @@
     <t>Aleksius</t>
   </si>
   <si>
-    <t>17 ч. 32 мин. 6 сек.</t>
+    <t>17 ч. 32 мин. 06 сек.</t>
   </si>
   <si>
     <t>Грубиян</t>
@@ -10124,13 +10124,13 @@
     <t>Дмитрий-Сол</t>
   </si>
   <si>
-    <t>19 ч. 4 мин. 7 сек.</t>
+    <t>19 ч. 04 мин. 07 сек.</t>
   </si>
   <si>
     <t>timnika</t>
   </si>
   <si>
-    <t>28 ч. 22 мин. 6 сек.</t>
+    <t>28 ч. 22 мин. 06 сек.</t>
   </si>
   <si>
     <t>Uri55</t>
@@ -10151,7 +10151,7 @@
     <t>Wolcharryk</t>
   </si>
   <si>
-    <t>13 ч. 7 мин. 46 сек.</t>
+    <t>13 ч. 07 мин. 46 сек.</t>
   </si>
   <si>
     <t>Sokol007</t>
@@ -10163,7 +10163,7 @@
     <t>ajka616</t>
   </si>
   <si>
-    <t>16 ч. 44 мин. 1 сек.</t>
+    <t>16 ч. 44 мин. 01 сек.</t>
   </si>
   <si>
     <t>CiberRus</t>
@@ -10175,7 +10175,7 @@
     <t>Корн</t>
   </si>
   <si>
-    <t>22 ч. 2 мин. 29 сек.</t>
+    <t>22 ч. 02 мин. 29 сек.</t>
   </si>
   <si>
     <t>Loldet</t>
@@ -10274,13 +10274,13 @@
     <t>VolodyaRzn</t>
   </si>
   <si>
-    <t>26 ч. 8 мин. 36 сек.</t>
+    <t>26 ч. 08 мин. 36 сек.</t>
   </si>
   <si>
     <t>юриус</t>
   </si>
   <si>
-    <t>28 ч. 48 мин. 4 сек.</t>
+    <t>28 ч. 48 мин. 04 сек.</t>
   </si>
   <si>
     <t>kpavel1990</t>
@@ -10301,7 +10301,7 @@
     <t>FlyKiller</t>
   </si>
   <si>
-    <t>9 ч. 14 мин. 0 сек.</t>
+    <t>9 ч. 14 мин. 00 сек.</t>
   </si>
   <si>
     <t>Klipt</t>
@@ -10325,13 +10325,13 @@
     <t>Jonny_E</t>
   </si>
   <si>
-    <t>41 ч. 4 мин. 51 сек.</t>
+    <t>41 ч. 04 мин. 51 сек.</t>
   </si>
   <si>
     <t>Yura800</t>
   </si>
   <si>
-    <t>84 ч. 58 мин. 0 сек.</t>
+    <t>84 ч. 58 мин. 00 сек.</t>
   </si>
   <si>
     <t>1567–1577</t>
@@ -10373,7 +10373,7 @@
     <t>FFwertu</t>
   </si>
   <si>
-    <t>20 ч. 23 мин. 4 сек.</t>
+    <t>20 ч. 23 мин. 04 сек.</t>
   </si>
   <si>
     <t>heavy_ezh</t>
@@ -10442,7 +10442,7 @@
     <t>ksneo</t>
   </si>
   <si>
-    <t>16 ч. 2 мин. 59 сек.</t>
+    <t>16 ч. 02 мин. 59 сек.</t>
   </si>
   <si>
     <t>Графит</t>
@@ -10505,7 +10505,7 @@
     <t>bing</t>
   </si>
   <si>
-    <t>9 ч. 19 мин. 7 сек.</t>
+    <t>9 ч. 19 мин. 07 сек.</t>
   </si>
   <si>
     <t>dashuly</t>
@@ -10517,7 +10517,7 @@
     <t>maksle</t>
   </si>
   <si>
-    <t>12 ч. 44 мин. 5 сек.</t>
+    <t>12 ч. 44 мин. 05 сек.</t>
   </si>
   <si>
     <t>dertru</t>
@@ -10526,13 +10526,13 @@
     <t>f0rtuna</t>
   </si>
   <si>
-    <t>15 ч. 9 мин. 22 сек.</t>
+    <t>15 ч. 09 мин. 22 сек.</t>
   </si>
   <si>
     <t>fackT</t>
   </si>
   <si>
-    <t>25 ч. 51 мин. 8 сек.</t>
+    <t>25 ч. 51 мин. 08 сек.</t>
   </si>
   <si>
     <t>Everything</t>
@@ -10556,7 +10556,7 @@
     <t>харцызяка</t>
   </si>
   <si>
-    <t>48 ч. 7 мин. 32 сек.</t>
+    <t>48 ч. 07 мин. 32 сек.</t>
   </si>
   <si>
     <t>1604–1613</t>
@@ -10565,13 +10565,13 @@
     <t>mmc</t>
   </si>
   <si>
-    <t>9 ч. 9 мин. 21 сек.</t>
+    <t>9 ч. 09 мин. 21 сек.</t>
   </si>
   <si>
     <t>jeni41</t>
   </si>
   <si>
-    <t>9 ч. 24 мин. 9 сек.</t>
+    <t>9 ч. 24 мин. 09 сек.</t>
   </si>
   <si>
     <t>sasa13e</t>
@@ -10589,13 +10589,13 @@
     <t>androed</t>
   </si>
   <si>
-    <t>10 ч. 54 мин. 6 сек.</t>
+    <t>10 ч. 54 мин. 06 сек.</t>
   </si>
   <si>
     <t>StarRuler</t>
   </si>
   <si>
-    <t>12 ч. 54 мин. 4 сек.</t>
+    <t>12 ч. 54 мин. 04 сек.</t>
   </si>
   <si>
     <t>Рюша</t>
@@ -10607,7 +10607,7 @@
     <t>STM32</t>
   </si>
   <si>
-    <t>13 ч. 54 мин. 9 сек.</t>
+    <t>13 ч. 54 мин. 09 сек.</t>
   </si>
   <si>
     <t>Зирочка</t>
@@ -10628,7 +10628,7 @@
     <t>Муркошка</t>
   </si>
   <si>
-    <t>25 ч. 6 мин. 3 сек.</t>
+    <t>25 ч. 06 мин. 03 сек.</t>
   </si>
   <si>
     <t>Keyss</t>
@@ -10649,7 +10649,7 @@
     <t>bugayono4ek</t>
   </si>
   <si>
-    <t>8 ч. 49 мин. 8 сек.</t>
+    <t>8 ч. 49 мин. 08 сек.</t>
   </si>
   <si>
     <t>Inochi</t>
@@ -10697,7 +10697,7 @@
     <t>gevis</t>
   </si>
   <si>
-    <t>9 ч. 3 мин. 50 сек.</t>
+    <t>9 ч. 03 мин. 50 сек.</t>
   </si>
   <si>
     <t>nastenka19</t>
@@ -10715,7 +10715,7 @@
     <t>vl7</t>
   </si>
   <si>
-    <t>18 ч. 6 мин. 52 сек.</t>
+    <t>18 ч. 06 мин. 52 сек.</t>
   </si>
   <si>
     <t>tutolmin</t>
@@ -10751,7 +10751,7 @@
     <t>омаевамо</t>
   </si>
   <si>
-    <t>16 ч. 8 мин. 56 сек.</t>
+    <t>16 ч. 08 мин. 56 сек.</t>
   </si>
   <si>
     <t>LlLl110</t>
@@ -10769,7 +10769,7 @@
     <t>GvOzDi</t>
   </si>
   <si>
-    <t>32 ч. 48 мин. 4 сек.</t>
+    <t>32 ч. 48 мин. 04 сек.</t>
   </si>
   <si>
     <t>eugeneLuck</t>
@@ -10820,7 +10820,7 @@
     <t>Radchin</t>
   </si>
   <si>
-    <t>13 ч. 23 мин. 9 сек.</t>
+    <t>13 ч. 23 мин. 09 сек.</t>
   </si>
   <si>
     <t>TerIno4ka</t>
@@ -10853,7 +10853,7 @@
     <t>Lunaries</t>
   </si>
   <si>
-    <t>9 ч. 1 мин. 48 сек.</t>
+    <t>9 ч. 01 мин. 48 сек.</t>
   </si>
   <si>
     <t>Dervish</t>
@@ -10865,7 +10865,7 @@
     <t>eagle747</t>
   </si>
   <si>
-    <t>11 ч. 37 мин. 9 сек.</t>
+    <t>11 ч. 37 мин. 09 сек.</t>
   </si>
   <si>
     <t>деловая_колбаса</t>
@@ -10910,13 +10910,13 @@
     <t>Danica</t>
   </si>
   <si>
-    <t>13 ч. 3 мин. 47 сек.</t>
+    <t>13 ч. 03 мин. 47 сек.</t>
   </si>
   <si>
     <t>g12ex</t>
   </si>
   <si>
-    <t>13 ч. 9 мин. 21 сек.</t>
+    <t>13 ч. 09 мин. 21 сек.</t>
   </si>
   <si>
     <t>LordNone</t>
@@ -10928,7 +10928,7 @@
     <t>Speed_King</t>
   </si>
   <si>
-    <t>17 ч. 3 мин. 4 сек.</t>
+    <t>17 ч. 03 мин. 04 сек.</t>
   </si>
   <si>
     <t>квадратик</t>
@@ -10946,7 +10946,7 @@
     <t>sbook</t>
   </si>
   <si>
-    <t>21 ч. 7 мин. 18 сек.</t>
+    <t>21 ч. 07 мин. 18 сек.</t>
   </si>
   <si>
     <t>Typsy</t>
@@ -10970,7 +10970,7 @@
     <t>Michelik</t>
   </si>
   <si>
-    <t>29 ч. 7 мин. 17 сек.</t>
+    <t>29 ч. 07 мин. 17 сек.</t>
   </si>
   <si>
     <t>SergeiAntipin</t>
@@ -11003,7 +11003,7 @@
     <t>kia1020</t>
   </si>
   <si>
-    <t>19 ч. 3 мин. 14 сек.</t>
+    <t>19 ч. 03 мин. 14 сек.</t>
   </si>
   <si>
     <t>bugmenot</t>
@@ -11021,7 +11021,7 @@
     <t>Шмакодявка</t>
   </si>
   <si>
-    <t>32 ч. 3 мин. 50 сек.</t>
+    <t>32 ч. 03 мин. 50 сек.</t>
   </si>
   <si>
     <t>Spivet</t>
@@ -11036,7 +11036,7 @@
     <t>Модильяни</t>
   </si>
   <si>
-    <t>8 ч. 19 мин. 9 сек.</t>
+    <t>8 ч. 19 мин. 09 сек.</t>
   </si>
   <si>
     <t>DFS</t>
@@ -11048,7 +11048,7 @@
     <t>SoutoMajor</t>
   </si>
   <si>
-    <t>15 ч. 9 мин. 8 сек.</t>
+    <t>15 ч. 09 мин. 08 сек.</t>
   </si>
   <si>
     <t>Sergofan52</t>
@@ -11078,7 +11078,7 @@
     <t>yurgen55</t>
   </si>
   <si>
-    <t>34 ч. 46 мин. 1 сек.</t>
+    <t>34 ч. 46 мин. 01 сек.</t>
   </si>
   <si>
     <t>Capr</t>
@@ -11090,7 +11090,7 @@
     <t>ольгуша2010</t>
   </si>
   <si>
-    <t>55 ч. 3 мин. 56 сек.</t>
+    <t>55 ч. 03 мин. 56 сек.</t>
   </si>
   <si>
     <t>1688–1693</t>
@@ -11102,7 +11102,7 @@
     <t>КлавоЛом</t>
   </si>
   <si>
-    <t>10 ч. 1 мин. 21 сек.</t>
+    <t>10 ч. 01 мин. 21 сек.</t>
   </si>
   <si>
     <t>grebenkov</t>
@@ -11114,7 +11114,7 @@
     <t>Юргенс_Клинсман</t>
   </si>
   <si>
-    <t>11 ч. 9 мин. 20 сек.</t>
+    <t>11 ч. 09 мин. 20 сек.</t>
   </si>
   <si>
     <t>aneliya1982</t>
@@ -11141,7 +11141,7 @@
     <t>_Dron_</t>
   </si>
   <si>
-    <t>12 ч. 3 мин. 44 сек.</t>
+    <t>12 ч. 03 мин. 44 сек.</t>
   </si>
   <si>
     <t>Plombir</t>
@@ -11153,7 +11153,7 @@
     <t>vad375</t>
   </si>
   <si>
-    <t>71 ч. 13 мин. 8 сек.</t>
+    <t>71 ч. 13 мин. 08 сек.</t>
   </si>
   <si>
     <t>1698–1700</t>
@@ -11162,7 +11162,7 @@
     <t>ppetrov</t>
   </si>
   <si>
-    <t>9 ч. 4 мин. 25 сек.</t>
+    <t>9 ч. 04 мин. 25 сек.</t>
   </si>
   <si>
     <t>xdg-</t>
@@ -11183,7 +11183,7 @@
     <t>Zzzzouoo</t>
   </si>
   <si>
-    <t>9 ч. 4 мин. 33 сек.</t>
+    <t>9 ч. 04 мин. 33 сек.</t>
   </si>
   <si>
     <t>vsvan</t>
@@ -11195,7 +11195,7 @@
     <t>AGATUKUS</t>
   </si>
   <si>
-    <t>17 ч. 36 мин. 8 сек.</t>
+    <t>17 ч. 36 мин. 08 сек.</t>
   </si>
   <si>
     <t>zeliks</t>
@@ -11228,13 +11228,13 @@
     <t>Alkhor</t>
   </si>
   <si>
-    <t>32 ч. 5 мин. 45 сек.</t>
+    <t>32 ч. 05 мин. 45 сек.</t>
   </si>
   <si>
     <t>brlch</t>
   </si>
   <si>
-    <t>61 ч. 9 мин. 57 сек.</t>
+    <t>61 ч. 09 мин. 57 сек.</t>
   </si>
   <si>
     <t>1710–1718</t>
@@ -11285,7 +11285,7 @@
     <t>IVIVI</t>
   </si>
   <si>
-    <t>24 ч. 32 мин. 7 сек.</t>
+    <t>24 ч. 32 мин. 07 сек.</t>
   </si>
   <si>
     <t>Vasiliok</t>
@@ -11306,13 +11306,13 @@
     <t>НикитаЧернецкий</t>
   </si>
   <si>
-    <t>11 ч. 24 мин. 2 сек.</t>
+    <t>11 ч. 24 мин. 02 сек.</t>
   </si>
   <si>
     <t>Lol_</t>
   </si>
   <si>
-    <t>13 ч. 53 мин. 2 сек.</t>
+    <t>13 ч. 53 мин. 02 сек.</t>
   </si>
   <si>
     <t>Ружандр</t>
@@ -11351,7 +11351,7 @@
     <t>Кросул</t>
   </si>
   <si>
-    <t>25 ч. 13 мин. 6 сек.</t>
+    <t>25 ч. 13 мин. 06 сек.</t>
   </si>
   <si>
     <t>Ягода</t>
@@ -11393,13 +11393,13 @@
     <t>August</t>
   </si>
   <si>
-    <t>15 ч. 48 мин. 5 сек.</t>
+    <t>15 ч. 48 мин. 05 сек.</t>
   </si>
   <si>
     <t>алесик</t>
   </si>
   <si>
-    <t>16 ч. 18 мин. 5 сек.</t>
+    <t>16 ч. 18 мин. 05 сек.</t>
   </si>
   <si>
     <t>Креслоноцец</t>
@@ -11411,7 +11411,7 @@
     <t>uncleSharik</t>
   </si>
   <si>
-    <t>50 ч. 59 мин. 0 сек.</t>
+    <t>50 ч. 59 мин. 00 сек.</t>
   </si>
   <si>
     <t>1738–1745</t>
@@ -11453,7 +11453,7 @@
     <t>kult</t>
   </si>
   <si>
-    <t>85 ч. 9 мин. 7 сек.</t>
+    <t>85 ч. 09 мин. 07 сек.</t>
   </si>
   <si>
     <t>a_inc</t>
@@ -11489,7 +11489,7 @@
     <t>Тормоз_ручной</t>
   </si>
   <si>
-    <t>57 ч. 2 мин. 0 сек.</t>
+    <t>57 ч. 02 мин. 00 сек.</t>
   </si>
   <si>
     <t>1751–1755</t>
@@ -11510,7 +11510,7 @@
     <t>sasha561</t>
   </si>
   <si>
-    <t>9 ч. 4 мин. 13 сек.</t>
+    <t>9 ч. 04 мин. 13 сек.</t>
   </si>
   <si>
     <t>Raduga</t>
@@ -11522,7 +11522,7 @@
     <t>АпСтену</t>
   </si>
   <si>
-    <t>11 ч. 4 мин. 8 сек.</t>
+    <t>11 ч. 04 мин. 08 сек.</t>
   </si>
   <si>
     <t>1756–1762</t>
@@ -11531,7 +11531,7 @@
     <t>Lexurev</t>
   </si>
   <si>
-    <t>9 ч. 3 мин. 0 сек.</t>
+    <t>9 ч. 03 мин. 00 сек.</t>
   </si>
   <si>
     <t>StarGate</t>
@@ -11549,7 +11549,7 @@
     <t>Sofyx</t>
   </si>
   <si>
-    <t>27 ч. 4 мин. 0 сек.</t>
+    <t>27 ч. 04 мин. 00 сек.</t>
   </si>
   <si>
     <t>катя1401</t>
@@ -11561,7 +11561,7 @@
     <t>impress_che</t>
   </si>
   <si>
-    <t>35 ч. 14 мин. 7 сек.</t>
+    <t>35 ч. 14 мин. 07 сек.</t>
   </si>
   <si>
     <t>corejuice</t>
@@ -11621,7 +11621,7 @@
     <t>Nuria</t>
   </si>
   <si>
-    <t>31 ч. 17 мин. 0 сек.</t>
+    <t>31 ч. 17 мин. 00 сек.</t>
   </si>
   <si>
     <t>zaqy</t>
@@ -11633,7 +11633,7 @@
     <t>Lanamay</t>
   </si>
   <si>
-    <t>49 ч. 7 мин. 3 сек.</t>
+    <t>49 ч. 07 мин. 03 сек.</t>
   </si>
   <si>
     <t>1773–1779</t>
@@ -11666,7 +11666,7 @@
     <t>Marfuska</t>
   </si>
   <si>
-    <t>14 ч. 3 мин. 20 сек.</t>
+    <t>14 ч. 03 мин. 20 сек.</t>
   </si>
   <si>
     <t>ozor</t>
@@ -11687,7 +11687,7 @@
     <t>IvanProskura</t>
   </si>
   <si>
-    <t>29 ч. 40 мин. 6 сек.</t>
+    <t>29 ч. 40 мин. 06 сек.</t>
   </si>
   <si>
     <t>Konstantin_S</t>
@@ -11699,7 +11699,7 @@
     <t>Кузькина</t>
   </si>
   <si>
-    <t>34 ч. 8 мин. 27 сек.</t>
+    <t>34 ч. 08 мин. 27 сек.</t>
   </si>
   <si>
     <t>1783–1788</t>
@@ -11738,7 +11738,7 @@
     <t>suprem-012</t>
   </si>
   <si>
-    <t>31 ч. 8 мин. 36 сек.</t>
+    <t>31 ч. 08 мин. 36 сек.</t>
   </si>
   <si>
     <t>1789–1792</t>
@@ -11777,19 +11777,19 @@
     <t>Mishan</t>
   </si>
   <si>
-    <t>10 ч. 23 мин. 2 сек.</t>
+    <t>10 ч. 23 мин. 02 сек.</t>
   </si>
   <si>
     <t>Какиш</t>
   </si>
   <si>
-    <t>14 ч. 13 мин. 9 сек.</t>
+    <t>14 ч. 13 мин. 09 сек.</t>
   </si>
   <si>
     <t>1912</t>
   </si>
   <si>
-    <t>27 ч. 5 мин. 49 сек.</t>
+    <t>27 ч. 05 мин. 49 сек.</t>
   </si>
   <si>
     <t>1797–1798</t>
@@ -11804,7 +11804,7 @@
     <t>1olegan</t>
   </si>
   <si>
-    <t>34 ч. 0 мин. 50 сек.</t>
+    <t>34 ч. 00 мин. 50 сек.</t>
   </si>
   <si>
     <t>1799–1805</t>
@@ -11813,13 +11813,13 @@
     <t>Andrew8</t>
   </si>
   <si>
-    <t>9 ч. 3 мин. 58 сек.</t>
+    <t>9 ч. 03 мин. 58 сек.</t>
   </si>
   <si>
     <t>-Ифигения-</t>
   </si>
   <si>
-    <t>11 ч. 4 мин. 19 сек.</t>
+    <t>11 ч. 04 мин. 19 сек.</t>
   </si>
   <si>
     <t>Eaton195</t>
@@ -11846,7 +11846,7 @@
     <t>Tigerwood</t>
   </si>
   <si>
-    <t>30 ч. 46 мин. 6 сек.</t>
+    <t>30 ч. 46 мин. 06 сек.</t>
   </si>
   <si>
     <t>1806–1812</t>
@@ -11858,7 +11858,7 @@
     <t>zxczxczxc1</t>
   </si>
   <si>
-    <t>10 ч. 44 мин. 9 сек.</t>
+    <t>10 ч. 44 мин. 09 сек.</t>
   </si>
   <si>
     <t>not-yuppie</t>
@@ -11870,7 +11870,7 @@
     <t>шамик</t>
   </si>
   <si>
-    <t>12 ч. 36 мин. 0 сек.</t>
+    <t>12 ч. 36 мин. 00 сек.</t>
   </si>
   <si>
     <t>LADA220876</t>
@@ -11936,7 +11936,7 @@
     <t>безтормозов</t>
   </si>
   <si>
-    <t>22 ч. 8 мин. 33 сек.</t>
+    <t>22 ч. 08 мин. 33 сек.</t>
   </si>
   <si>
     <t>1820–1822</t>
@@ -11945,19 +11945,19 @@
     <t>Иркут</t>
   </si>
   <si>
-    <t>10 ч. 4 мин. 26 сек.</t>
+    <t>10 ч. 04 мин. 26 сек.</t>
   </si>
   <si>
     <t>Альбатрос</t>
   </si>
   <si>
-    <t>20 ч. 6 мин. 35 сек.</t>
+    <t>20 ч. 06 мин. 35 сек.</t>
   </si>
   <si>
     <t>BlackPantera</t>
   </si>
   <si>
-    <t>22 ч. 6 мин. 55 сек.</t>
+    <t>22 ч. 06 мин. 55 сек.</t>
   </si>
   <si>
     <t>1823–1828</t>
@@ -11987,13 +11987,13 @@
     <t>В_путь</t>
   </si>
   <si>
-    <t>12 ч. 9 мин. 18 сек.</t>
+    <t>12 ч. 09 мин. 18 сек.</t>
   </si>
   <si>
     <t>AlexeyAlexey7</t>
   </si>
   <si>
-    <t>17 ч. 2 мин. 42 сек.</t>
+    <t>17 ч. 02 мин. 42 сек.</t>
   </si>
   <si>
     <t>1829–1836</t>
@@ -12038,7 +12038,7 @@
     <t>DimaRoot</t>
   </si>
   <si>
-    <t>22 ч. 3 мин. 49 сек.</t>
+    <t>22 ч. 03 мин. 49 сек.</t>
   </si>
   <si>
     <t>Shmetakov</t>
@@ -12059,7 +12059,7 @@
     <t>Olgitsa</t>
   </si>
   <si>
-    <t>13 ч. 8 мин. 24 сек.</t>
+    <t>13 ч. 08 мин. 24 сек.</t>
   </si>
   <si>
     <t>1839–1844</t>
@@ -12098,7 +12098,7 @@
     <t>Pavl0</t>
   </si>
   <si>
-    <t>17 ч. 3 мин. 7 сек.</t>
+    <t>17 ч. 03 мин. 07 сек.</t>
   </si>
   <si>
     <t>wolf5995</t>
@@ -12122,7 +12122,7 @@
     <t>Фиксик</t>
   </si>
   <si>
-    <t>52 ч. 29 мин. 7 сек.</t>
+    <t>52 ч. 29 мин. 07 сек.</t>
   </si>
   <si>
     <t>Людк</t>
@@ -12143,7 +12143,7 @@
     <t>SergeyD97</t>
   </si>
   <si>
-    <t>10 ч. 2 мин. 59 сек.</t>
+    <t>10 ч. 02 мин. 59 сек.</t>
   </si>
   <si>
     <t>rigel</t>
@@ -12167,7 +12167,7 @@
     <t>IvanovM</t>
   </si>
   <si>
-    <t>22 ч. 13 мин. 5 сек.</t>
+    <t>22 ч. 13 мин. 05 сек.</t>
   </si>
   <si>
     <t>1857–1858</t>
@@ -12227,7 +12227,7 @@
     <t>ANYA111</t>
   </si>
   <si>
-    <t>15 ч. 3 мин. 24 сек.</t>
+    <t>15 ч. 03 мин. 24 сек.</t>
   </si>
   <si>
     <t>kochuma</t>
@@ -12254,19 +12254,19 @@
     <t>MagnumPI</t>
   </si>
   <si>
-    <t>9 ч. 3 мин. 57 сек.</t>
+    <t>9 ч. 03 мин. 57 сек.</t>
   </si>
   <si>
     <t>NaNol</t>
   </si>
   <si>
-    <t>10 ч. 8 мин. 47 сек.</t>
+    <t>10 ч. 08 мин. 47 сек.</t>
   </si>
   <si>
     <t>-kuza-</t>
   </si>
   <si>
-    <t>18 ч. 5 мин. 22 сек.</t>
+    <t>18 ч. 05 мин. 22 сек.</t>
   </si>
   <si>
     <t>Fomich</t>
@@ -12293,7 +12293,7 @@
     <t>Duke0013</t>
   </si>
   <si>
-    <t>27 ч. 33 мин. 5 сек.</t>
+    <t>27 ч. 33 мин. 05 сек.</t>
   </si>
   <si>
     <t>Brent</t>
@@ -12320,7 +12320,7 @@
     <t>славный</t>
   </si>
   <si>
-    <t>8 ч. 52 мин. 8 сек.</t>
+    <t>8 ч. 52 мин. 08 сек.</t>
   </si>
   <si>
     <t>FeO</t>
@@ -12389,7 +12389,7 @@
     <t>baobab67</t>
   </si>
   <si>
-    <t>39 ч. 2 мин. 29 сек.</t>
+    <t>39 ч. 02 мин. 29 сек.</t>
   </si>
   <si>
     <t>AMM999</t>
@@ -12404,7 +12404,7 @@
     <t>oshni</t>
   </si>
   <si>
-    <t>8 ч. 54 мин. 9 сек.</t>
+    <t>8 ч. 54 мин. 09 сек.</t>
   </si>
   <si>
     <t>alexst46</t>
@@ -12452,7 +12452,7 @@
     <t>lady_gaga</t>
   </si>
   <si>
-    <t>12 ч. 3 мин. 25 сек.</t>
+    <t>12 ч. 03 мин. 25 сек.</t>
   </si>
   <si>
     <t>andromed</t>
@@ -12464,7 +12464,7 @@
     <t>Петька29</t>
   </si>
   <si>
-    <t>17 ч. 0 мин. 46 сек.</t>
+    <t>17 ч. 00 мин. 46 сек.</t>
   </si>
   <si>
     <t>todin</t>
@@ -12476,7 +12476,7 @@
     <t>sa1k</t>
   </si>
   <si>
-    <t>24 ч. 8 мин. 48 сек.</t>
+    <t>24 ч. 08 мин. 48 сек.</t>
   </si>
   <si>
     <t>svonun</t>
@@ -12491,19 +12491,19 @@
     <t>PlasticPuppet</t>
   </si>
   <si>
-    <t>12 ч. 3 мин. 42 сек.</t>
+    <t>12 ч. 03 мин. 42 сек.</t>
   </si>
   <si>
     <t>franka</t>
   </si>
   <si>
-    <t>19 ч. 2 мин. 45 сек.</t>
+    <t>19 ч. 02 мин. 45 сек.</t>
   </si>
   <si>
     <t>sakhsod112</t>
   </si>
   <si>
-    <t>23 ч. 59 мин. 7 сек.</t>
+    <t>23 ч. 59 мин. 07 сек.</t>
   </si>
   <si>
     <t>Reveur</t>
@@ -12530,7 +12530,7 @@
     <t>Lgg_</t>
   </si>
   <si>
-    <t>11 ч. 44 мин. 2 сек.</t>
+    <t>11 ч. 44 мин. 02 сек.</t>
   </si>
   <si>
     <t>erf</t>
@@ -12542,7 +12542,7 @@
     <t>Kalenvall</t>
   </si>
   <si>
-    <t>19 ч. 44 мин. 6 сек.</t>
+    <t>19 ч. 44 мин. 06 сек.</t>
   </si>
   <si>
     <t>ЕвгенийТруб</t>
@@ -12554,7 +12554,7 @@
     <t>December</t>
   </si>
   <si>
-    <t>31 ч. 37 мин. 5 сек.</t>
+    <t>31 ч. 37 мин. 05 сек.</t>
   </si>
   <si>
     <t>1917–1919</t>
@@ -12563,13 +12563,13 @@
     <t>asteny2005</t>
   </si>
   <si>
-    <t>12 ч. 53 мин. 0 сек.</t>
+    <t>12 ч. 53 мин. 00 сек.</t>
   </si>
   <si>
     <t>Sexyponochka</t>
   </si>
   <si>
-    <t>25 ч. 26 мин. 5 сек.</t>
+    <t>25 ч. 26 мин. 05 сек.</t>
   </si>
   <si>
     <t>kpasten</t>
@@ -12584,7 +12584,7 @@
     <t>miran</t>
   </si>
   <si>
-    <t>9 ч. 4 мин. 11 сек.</t>
+    <t>9 ч. 04 мин. 11 сек.</t>
   </si>
   <si>
     <t>Railag101</t>
@@ -12596,7 +12596,7 @@
     <t>ELIJAHFOMICHEV</t>
   </si>
   <si>
-    <t>10 ч. 2 мин. 23 сек.</t>
+    <t>10 ч. 02 мин. 23 сек.</t>
   </si>
   <si>
     <t>shamils</t>
@@ -12614,7 +12614,7 @@
     <t>Cerry-Ledy</t>
   </si>
   <si>
-    <t>31 ч. 45 мин. 2 сек.</t>
+    <t>31 ч. 45 мин. 02 сек.</t>
   </si>
   <si>
     <t>AlexVN</t>
@@ -12626,7 +12626,7 @@
     <t>омичка</t>
   </si>
   <si>
-    <t>77 ч. 0 мин. 17 сек.</t>
+    <t>77 ч. 00 мин. 17 сек.</t>
   </si>
   <si>
     <t>1928–1932</t>
@@ -12647,13 +12647,13 @@
     <t>Lujdmila</t>
   </si>
   <si>
-    <t>13 ч. 3 мин. 22 сек.</t>
+    <t>13 ч. 03 мин. 22 сек.</t>
   </si>
   <si>
     <t>alertin</t>
   </si>
   <si>
-    <t>14 ч. 9 мин. 21 сек.</t>
+    <t>14 ч. 09 мин. 21 сек.</t>
   </si>
   <si>
     <t>finch_a</t>
@@ -12680,7 +12680,7 @@
     <t>lister32</t>
   </si>
   <si>
-    <t>101 ч. 39 мин. 0 сек.</t>
+    <t>101 ч. 39 мин. 00 сек.</t>
   </si>
   <si>
     <t>1936–1938</t>
@@ -12689,7 +12689,7 @@
     <t>hippo2047</t>
   </si>
   <si>
-    <t>99 ч. 32 мин. 5 сек.</t>
+    <t>99 ч. 32 мин. 05 сек.</t>
   </si>
   <si>
     <t>Janeee</t>
@@ -12710,7 +12710,7 @@
     <t>bdod</t>
   </si>
   <si>
-    <t>10 ч. 4 мин. 39 сек.</t>
+    <t>10 ч. 04 мин. 39 сек.</t>
   </si>
   <si>
     <t>valerii12345</t>
@@ -12722,7 +12722,7 @@
     <t>Grarad</t>
   </si>
   <si>
-    <t>20 ч. 8 мин. 9 сек.</t>
+    <t>20 ч. 08 мин. 09 сек.</t>
   </si>
   <si>
     <t>svetophor</t>
@@ -12767,13 +12767,13 @@
     <t>lelikanet</t>
   </si>
   <si>
-    <t>28 ч. 5 мин. 21 сек.</t>
+    <t>28 ч. 05 мин. 21 сек.</t>
   </si>
   <si>
     <t>Oleg9534</t>
   </si>
   <si>
-    <t>82 ч. 31 мин. 9 сек.</t>
+    <t>82 ч. 31 мин. 09 сек.</t>
   </si>
   <si>
     <t>1951</t>
@@ -12794,7 +12794,7 @@
     <t>disfated</t>
   </si>
   <si>
-    <t>10 ч. 7 мин. 57 сек.</t>
+    <t>10 ч. 07 мин. 57 сек.</t>
   </si>
   <si>
     <t>yescast</t>
@@ -12827,7 +12827,7 @@
     <t>Дмитрий2</t>
   </si>
   <si>
-    <t>36 ч. 1 мин. 43 сек.</t>
+    <t>36 ч. 01 мин. 43 сек.</t>
   </si>
   <si>
     <t>1959–1961</t>
@@ -12836,13 +12836,13 @@
     <t>zlpr</t>
   </si>
   <si>
-    <t>9 ч. 9 мин. 56 сек.</t>
+    <t>9 ч. 09 мин. 56 сек.</t>
   </si>
   <si>
     <t>fly22</t>
   </si>
   <si>
-    <t>18 ч. 4 мин. 28 сек.</t>
+    <t>18 ч. 04 мин. 28 сек.</t>
   </si>
   <si>
     <t>andyudol</t>
@@ -12863,7 +12863,7 @@
     <t>blblbl</t>
   </si>
   <si>
-    <t>11 ч. 1 мин. 37 сек.</t>
+    <t>11 ч. 01 мин. 37 сек.</t>
   </si>
   <si>
     <t>wermon</t>
@@ -12881,7 +12881,7 @@
     <t>Aleks1700</t>
   </si>
   <si>
-    <t>29 ч. 23 мин. 9 сек.</t>
+    <t>29 ч. 23 мин. 09 сек.</t>
   </si>
   <si>
     <t>Вассисуарий12</t>
@@ -12944,7 +12944,7 @@
     <t>gurke</t>
   </si>
   <si>
-    <t>23 ч. 8 мин. 35 сек.</t>
+    <t>23 ч. 08 мин. 35 сек.</t>
   </si>
   <si>
     <t>natali</t>
@@ -12956,7 +12956,7 @@
     <t>Mary27</t>
   </si>
   <si>
-    <t>49 ч. 0 мин. 45 сек.</t>
+    <t>49 ч. 00 мин. 45 сек.</t>
   </si>
   <si>
     <t>1979–1980</t>
@@ -12977,7 +12977,7 @@
     <t>maxmaster666</t>
   </si>
   <si>
-    <t>9 ч. 7 мин. 43 сек.</t>
+    <t>9 ч. 07 мин. 43 сек.</t>
   </si>
   <si>
     <t>Langur</t>
@@ -13058,7 +13058,7 @@
     <t>Alex1980</t>
   </si>
   <si>
-    <t>15 ч. 2 мин. 49 сек.</t>
+    <t>15 ч. 02 мин. 49 сек.</t>
   </si>
   <si>
     <t>Ichiro</t>
@@ -13073,13 +13073,13 @@
     <t>elminia</t>
   </si>
   <si>
-    <t>11 ч. 9 мин. 1 сек.</t>
+    <t>11 ч. 09 мин. 01 сек.</t>
   </si>
   <si>
     <t>Oblaudr</t>
   </si>
   <si>
-    <t>14 ч. 14 мин. 6 сек.</t>
+    <t>14 ч. 14 мин. 06 сек.</t>
   </si>
   <si>
     <t>1998–2002</t>
@@ -13088,7 +13088,7 @@
     <t>st46834</t>
   </si>
   <si>
-    <t>8 ч. 19 мин. 8 сек.</t>
+    <t>8 ч. 19 мин. 08 сек.</t>
   </si>
   <si>
     <t>mare4ka1</t>
@@ -13106,7 +13106,7 @@
     <t>Cairns</t>
   </si>
   <si>
-    <t>15 ч. 7 мин. 21 сек.</t>
+    <t>15 ч. 07 мин. 21 сек.</t>
   </si>
   <si>
     <t>Абвгдей</t>
@@ -13133,7 +13133,7 @@
     <t>chernyshov_ip</t>
   </si>
   <si>
-    <t>12 ч. 9 мин. 24 сек.</t>
+    <t>12 ч. 09 мин. 24 сек.</t>
   </si>
   <si>
     <t>eugene0</t>
@@ -13166,7 +13166,7 @@
     <t>Гена8</t>
   </si>
   <si>
-    <t>11 ч. 38 мин. 5 сек.</t>
+    <t>11 ч. 38 мин. 05 сек.</t>
   </si>
   <si>
     <t>aleks333</t>
@@ -13175,7 +13175,7 @@
     <t>Maks83</t>
   </si>
   <si>
-    <t>31 ч. 9 мин. 10 сек.</t>
+    <t>31 ч. 09 мин. 10 сек.</t>
   </si>
   <si>
     <t>2013–2015</t>
@@ -13190,7 +13190,7 @@
     <t>Andrey853</t>
   </si>
   <si>
-    <t>17 ч. 9 мин. 24 сек.</t>
+    <t>17 ч. 09 мин. 24 сек.</t>
   </si>
   <si>
     <t>Биолог467</t>
@@ -13232,7 +13232,7 @@
     <t>Sol0n</t>
   </si>
   <si>
-    <t>17 ч. 34 мин. 0 сек.</t>
+    <t>17 ч. 34 мин. 00 сек.</t>
   </si>
   <si>
     <t>MIKE_OD</t>
@@ -13292,13 +13292,13 @@
     <t>мегагуру</t>
   </si>
   <si>
-    <t>9 ч. 14 мин. 5 сек.</t>
+    <t>9 ч. 14 мин. 05 сек.</t>
   </si>
   <si>
     <t>2pacshakur</t>
   </si>
   <si>
-    <t>12 ч. 8 мин. 43 сек.</t>
+    <t>12 ч. 08 мин. 43 сек.</t>
   </si>
   <si>
     <t>Nyscha21</t>
@@ -13325,7 +13325,7 @@
     <t>nbiektashiev</t>
   </si>
   <si>
-    <t>9 ч. 8 мин. 0 сек.</t>
+    <t>9 ч. 08 мин. 00 сек.</t>
   </si>
   <si>
     <t>Dim_O</t>
@@ -13370,19 +13370,19 @@
     <t>Zaz968m</t>
   </si>
   <si>
-    <t>17 ч. 8 мин. 56 сек.</t>
+    <t>17 ч. 08 мин. 56 сек.</t>
   </si>
   <si>
     <t>АСкворешня-Мчит</t>
   </si>
   <si>
-    <t>22 ч. 8 мин. 23 сек.</t>
+    <t>22 ч. 08 мин. 23 сек.</t>
   </si>
   <si>
     <t>ps1501</t>
   </si>
   <si>
-    <t>74 ч. 4 мин. 58 сек.</t>
+    <t>74 ч. 04 мин. 58 сек.</t>
   </si>
   <si>
     <t>2044–2048</t>
@@ -13394,7 +13394,7 @@
     <t>Denar</t>
   </si>
   <si>
-    <t>13 ч. 18 мин. 9 сек.</t>
+    <t>13 ч. 18 мин. 09 сек.</t>
   </si>
   <si>
     <t>Mirabilis</t>
@@ -13412,7 +13412,7 @@
     <t>Vohel</t>
   </si>
   <si>
-    <t>20 ч. 37 мин. 6 сек.</t>
+    <t>20 ч. 37 мин. 06 сек.</t>
   </si>
   <si>
     <t>2049–2057</t>
@@ -13421,7 +13421,7 @@
     <t>PTB_7z</t>
   </si>
   <si>
-    <t>8 ч. 39 мин. 3 сек.</t>
+    <t>8 ч. 39 мин. 03 сек.</t>
   </si>
   <si>
     <t>Nigrodeus</t>
@@ -13463,13 +13463,13 @@
     <t>мао</t>
   </si>
   <si>
-    <t>17 ч. 58 мин. 4 сек.</t>
+    <t>17 ч. 58 мин. 04 сек.</t>
   </si>
   <si>
     <t>wipexe</t>
   </si>
   <si>
-    <t>19 ч. 3 мин. 44 сек.</t>
+    <t>19 ч. 03 мин. 44 сек.</t>
   </si>
   <si>
     <t>2058–2060</t>
@@ -13493,7 +13493,7 @@
     <t>wakiko</t>
   </si>
   <si>
-    <t>8 ч. 34 мин. 2 сек.</t>
+    <t>8 ч. 34 мин. 02 сек.</t>
   </si>
   <si>
     <t>Kirodzumy</t>
@@ -13514,7 +13514,7 @@
     <t>Silverneo</t>
   </si>
   <si>
-    <t>16 ч. 9 мин. 2 сек.</t>
+    <t>16 ч. 09 мин. 02 сек.</t>
   </si>
   <si>
     <t>2066–2067</t>
@@ -13523,7 +13523,7 @@
     <t>elkmor</t>
   </si>
   <si>
-    <t>10 ч. 4 мин. 28 сек.</t>
+    <t>10 ч. 04 мин. 28 сек.</t>
   </si>
   <si>
     <t>Vik_toriya</t>
@@ -13547,7 +13547,7 @@
     <t>stanislavsib</t>
   </si>
   <si>
-    <t>9 ч. 3 мин. 31 сек.</t>
+    <t>9 ч. 03 мин. 31 сек.</t>
   </si>
   <si>
     <t>зум-зум</t>
@@ -13568,7 +13568,7 @@
     <t>Нежная</t>
   </si>
   <si>
-    <t>43 ч. 6 мин. 37 сек.</t>
+    <t>43 ч. 06 мин. 37 сек.</t>
   </si>
   <si>
     <t>2073–2074</t>
@@ -13598,7 +13598,7 @@
     <t>NLA</t>
   </si>
   <si>
-    <t>23 ч. 9 мин. 5 сек.</t>
+    <t>23 ч. 09 мин. 05 сек.</t>
   </si>
   <si>
     <t>Галахад</t>
@@ -13634,7 +13634,7 @@
     <t>nikitastech2010</t>
   </si>
   <si>
-    <t>24 ч. 4 мин. 14 сек.</t>
+    <t>24 ч. 04 мин. 14 сек.</t>
   </si>
   <si>
     <t>nick_nickovich</t>
@@ -13685,13 +13685,13 @@
     <t>Asuo</t>
   </si>
   <si>
-    <t>13 ч. 3 мин. 52 сек.</t>
+    <t>13 ч. 03 мин. 52 сек.</t>
   </si>
   <si>
     <t>zimonin</t>
   </si>
   <si>
-    <t>13 ч. 4 мин. 57 сек.</t>
+    <t>13 ч. 04 мин. 57 сек.</t>
   </si>
   <si>
     <t>M0Ng0</t>
@@ -13706,7 +13706,7 @@
     <t>Alice_</t>
   </si>
   <si>
-    <t>9 ч. 8 мин. 46 сек.</t>
+    <t>9 ч. 08 мин. 46 сек.</t>
   </si>
   <si>
     <t>shamara877</t>
@@ -13727,7 +13727,7 @@
     <t>ABSOLUUUT_</t>
   </si>
   <si>
-    <t>12 ч. 50 мин. 1 сек.</t>
+    <t>12 ч. 50 мин. 01 сек.</t>
   </si>
   <si>
     <t>bob17</t>
@@ -13739,7 +13739,7 @@
     <t>Sfinks</t>
   </si>
   <si>
-    <t>42 ч. 9 мин. 14 сек.</t>
+    <t>42 ч. 09 мин. 14 сек.</t>
   </si>
   <si>
     <t>Майк-Эрл</t>
@@ -13784,7 +13784,7 @@
     <t>IvicaEkimovsky</t>
   </si>
   <si>
-    <t>23 ч. 18 мин. 4 сек.</t>
+    <t>23 ч. 18 мин. 04 сек.</t>
   </si>
   <si>
     <t>2104–2105</t>
@@ -13799,7 +13799,7 @@
     <t>LevinGTO</t>
   </si>
   <si>
-    <t>25 ч. 2 мин. 51 сек.</t>
+    <t>25 ч. 02 мин. 51 сек.</t>
   </si>
   <si>
     <t>2106</t>
@@ -13808,7 +13808,7 @@
     <t>mindsculptor</t>
   </si>
   <si>
-    <t>9 ч. 19 мин. 9 сек.</t>
+    <t>9 ч. 19 мин. 09 сек.</t>
   </si>
   <si>
     <t>2107</t>
@@ -13817,7 +13817,7 @@
     <t>-WERT-</t>
   </si>
   <si>
-    <t>17 ч. 8 мин. 0 сек.</t>
+    <t>17 ч. 08 мин. 00 сек.</t>
   </si>
   <si>
     <t>2108–2110</t>
@@ -13829,7 +13829,7 @@
     <t>HappinessHappen</t>
   </si>
   <si>
-    <t>12 ч. 59 мин. 7 сек.</t>
+    <t>12 ч. 59 мин. 07 сек.</t>
   </si>
   <si>
     <t>12890</t>
@@ -13901,13 +13901,13 @@
     <t>Totosha</t>
   </si>
   <si>
-    <t>10 ч. 14 мин. 6 сек.</t>
+    <t>10 ч. 14 мин. 06 сек.</t>
   </si>
   <si>
     <t>MarkD</t>
   </si>
   <si>
-    <t>12 ч. 7 мин. 20 сек.</t>
+    <t>12 ч. 07 мин. 20 сек.</t>
   </si>
   <si>
     <t>SemenovE</t>
@@ -13922,7 +13922,7 @@
     <t>n0mroe</t>
   </si>
   <si>
-    <t>13 ч. 2 мин. 40 сек.</t>
+    <t>13 ч. 02 мин. 40 сек.</t>
   </si>
   <si>
     <t>2122</t>
@@ -13964,7 +13964,7 @@
     <t>АЛЕКС99</t>
   </si>
   <si>
-    <t>29 ч. 1 мин. 59 сек.</t>
+    <t>29 ч. 01 мин. 59 сек.</t>
   </si>
   <si>
     <t>2127–2128</t>
@@ -14036,7 +14036,7 @@
     <t>Crimeaman</t>
   </si>
   <si>
-    <t>12 ч. 39 мин. 4 сек.</t>
+    <t>12 ч. 39 мин. 04 сек.</t>
   </si>
   <si>
     <t>svett56</t>
@@ -14051,7 +14051,7 @@
     <t>zdanhik</t>
   </si>
   <si>
-    <t>18 ч. 7 мин. 32 сек.</t>
+    <t>18 ч. 07 мин. 32 сек.</t>
   </si>
   <si>
     <t>2139</t>
@@ -14075,7 +14075,7 @@
     <t>Мариска</t>
   </si>
   <si>
-    <t>38 ч. 8 мин. 50 сек.</t>
+    <t>38 ч. 08 мин. 50 сек.</t>
   </si>
   <si>
     <t>2142</t>
@@ -14084,7 +14084,7 @@
     <t>Marishkina</t>
   </si>
   <si>
-    <t>9 ч. 9 мин. 33 сек.</t>
+    <t>9 ч. 09 мин. 33 сек.</t>
   </si>
   <si>
     <t>2143–2144</t>
@@ -14099,7 +14099,7 @@
     <t>Qadan</t>
   </si>
   <si>
-    <t>11 ч. 39 мин. 7 сек.</t>
+    <t>11 ч. 39 мин. 07 сек.</t>
   </si>
   <si>
     <t>2145–2146</t>
@@ -14123,7 +14123,7 @@
     <t>WOKII</t>
   </si>
   <si>
-    <t>10 ч. 3 мин. 53 сек.</t>
+    <t>10 ч. 03 мин. 53 сек.</t>
   </si>
   <si>
     <t>2148</t>
@@ -14216,13 +14216,13 @@
     <t>tvger</t>
   </si>
   <si>
-    <t>32 ч. 58 мин. 9 сек.</t>
+    <t>32 ч. 58 мин. 09 сек.</t>
   </si>
   <si>
     <t>Sergey0909</t>
   </si>
   <si>
-    <t>166 ч. 22 мин. 6 сек.</t>
+    <t>166 ч. 22 мин. 06 сек.</t>
   </si>
   <si>
     <t>2161</t>
@@ -14300,7 +14300,7 @@
     <t>Нельсон1104</t>
   </si>
   <si>
-    <t>16 ч. 9 мин. 13 сек.</t>
+    <t>16 ч. 09 мин. 13 сек.</t>
   </si>
   <si>
     <t>2172</t>
@@ -14354,7 +14354,7 @@
     <t>vitalijus</t>
   </si>
   <si>
-    <t>10 ч. 14 мин. 3 сек.</t>
+    <t>10 ч. 14 мин. 03 сек.</t>
   </si>
   <si>
     <t>Jenyok</t>
@@ -14369,7 +14369,7 @@
     <t>хандеш</t>
   </si>
   <si>
-    <t>33 ч. 3 мин. 0 сек.</t>
+    <t>33 ч. 03 мин. 00 сек.</t>
   </si>
   <si>
     <t>2180</t>
